--- a/04_lu_tables/lu_cond_recommendations_2024-09-06.xlsx
+++ b/04_lu_tables/lu_cond_recommendations_2024-09-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Documents\GitHub_AB-RCSC\rc-decision-support-tool\04_lu_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AB7BED-03D6-43AE-ACCD-C78E814C63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA4E6C-F1D9-49D6-87EA-3CB928600326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15720" tabRatio="807" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
   </bookViews>
   <sheets>
     <sheet name="rec_mod_approach" sheetId="5" r:id="rId1"/>
@@ -6800,7 +6800,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="187">
+  <dxfs count="172">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7290,237 +7290,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF2F2F2"/>
           <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7642,26 +7415,6 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
@@ -7689,10 +7442,369 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDEEAF6"/>
           <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7737,12 +7849,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7759,64 +7919,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFEF2CB"/>
           <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7845,239 +7947,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB4C6E7"/>
           <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8772,14 +8645,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="17.625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="73.875" customWidth="1"/>
+    <col min="4" max="4" width="56.125" customWidth="1"/>
     <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="21.125" hidden="1" customWidth="1"/>
@@ -11473,161 +11346,161 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H10:H14">
-    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="8" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I8">
-    <cfRule type="cellIs" dxfId="185" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="184" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="cellIs" dxfId="183" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J3 L3:M3">
-    <cfRule type="cellIs" dxfId="182" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:M15">
-    <cfRule type="cellIs" dxfId="181" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="180" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M17">
-    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="13" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:Q10 O12:O22 P14:Q14 O23:P23 O24:O28">
-    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5 Y2:Y6">
-    <cfRule type="containsText" dxfId="177" priority="130" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="162" priority="130" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P9 Y1 Y7:Y28">
-    <cfRule type="containsText" dxfId="176" priority="20" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="161" priority="20" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:Q2">
-    <cfRule type="containsText" dxfId="174" priority="14" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="159" priority="14" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="15" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="158" priority="15" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="16" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="157" priority="16" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="17" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="156" priority="17" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:Q4">
-    <cfRule type="containsText" dxfId="170" priority="18" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="155" priority="18" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P4))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="19" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="154" priority="19" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q14">
-    <cfRule type="containsText" dxfId="168" priority="21" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(P14))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="22" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="152" priority="22" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="166" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="4" operator="containsText" text="sp_size">
+    <cfRule type="containsText" dxfId="150" priority="4" operator="containsText" text="sp_size">
       <formula>NOT(ISERROR(SEARCH(("sp_size"),(R10))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="5" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="149" priority="5" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(R10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="163" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V21 W22 V23:V28">
-    <cfRule type="containsText" dxfId="162" priority="24" operator="containsText" text="Survey duration">
+    <cfRule type="containsText" dxfId="147" priority="24" operator="containsText" text="Survey duration">
       <formula>NOT(ISERROR(SEARCH(("Survey duration"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="25" operator="containsText" text="Total number of camera days">
+    <cfRule type="containsText" dxfId="146" priority="25" operator="containsText" text="Total number of camera days">
       <formula>NOT(ISERROR(SEARCH(("Total number of camera days"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="26" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="145" priority="26" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="27" operator="containsText" text="Camera spacing">
+    <cfRule type="containsText" dxfId="144" priority="27" operator="containsText" text="Camera spacing">
       <formula>NOT(ISERROR(SEARCH(("Camera spacing"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="28" operator="containsText" text="Camera days per camera location">
+    <cfRule type="containsText" dxfId="143" priority="28" operator="containsText" text="Camera days per camera location">
       <formula>NOT(ISERROR(SEARCH(("Camera days per camera location"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="29" operator="containsText" text="Camera arrangement">
+    <cfRule type="containsText" dxfId="142" priority="29" operator="containsText" text="Camera arrangement">
       <formula>NOT(ISERROR(SEARCH(("Camera arrangement"),(V1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="30" operator="containsText" text="Number of cameras">
+    <cfRule type="containsText" dxfId="141" priority="30" operator="containsText" text="Number of cameras">
       <formula>NOT(ISERROR(SEARCH(("Number of cameras"),(V1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W28">
-    <cfRule type="containsText" dxfId="155" priority="31" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="140" priority="31" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(W1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="32" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="139" priority="32" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(W1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="33" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="138" priority="33" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(W1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="34" operator="containsText" text="survey_duration">
+    <cfRule type="containsText" dxfId="137" priority="34" operator="containsText" text="survey_duration">
       <formula>NOT(ISERROR(SEARCH(("survey_duration"),(W1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="35" operator="containsText" text="cam_days_ttl">
+    <cfRule type="containsText" dxfId="136" priority="35" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(W1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="36" operator="containsText" text="cam_spacing">
+    <cfRule type="containsText" dxfId="135" priority="36" operator="containsText" text="cam_spacing">
       <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(W1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1 P6:P9 Y7:Y28">
-    <cfRule type="containsText" dxfId="149" priority="37" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="134" priority="37" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y6 P5">
-    <cfRule type="containsText" dxfId="148" priority="137" operator="containsText" text="rarity">
+    <cfRule type="containsText" dxfId="133" priority="137" operator="containsText" text="rarity">
       <formula>NOT(ISERROR(SEARCH(("rarity"),(P7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11643,10 +11516,10 @@
   </sheetPr>
   <dimension ref="A1:AW994"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -11661,7 +11534,7 @@
     <col min="8" max="8" width="32" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="32.75" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
     <col min="12" max="12" width="40.125" customWidth="1"/>
     <col min="13" max="13" width="32" customWidth="1"/>
     <col min="14" max="14" width="34.125" style="3" customWidth="1"/>
@@ -11874,7 +11747,7 @@
         <v>1451</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(G2=H2,"false","TRUE")</f>
+        <f t="shared" ref="I2:I65" si="0">IF(G2=H2,"false","TRUE")</f>
         <v>false</v>
       </c>
       <c r="J2" s="4" t="str">
@@ -11978,7 +11851,7 @@
         <v>1410</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IF(G3=H3,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J3" s="4" t="str">
@@ -12076,7 +11949,7 @@
         <v>1915</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF(G4=H4,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J4">
@@ -12110,7 +11983,7 @@
         <v>1915</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF(G5=H5,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J5">
@@ -12144,7 +12017,7 @@
         <v>1915</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF(G6=H6,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J6">
@@ -12178,7 +12051,7 @@
         <v>1915</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF(G7=H7,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J7">
@@ -12218,7 +12091,7 @@
         <v>1411</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF(G8=H8,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J8" s="4" t="str">
@@ -12235,7 +12108,7 @@
         <v>1894</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f>M8&amp;" ("&amp;AU8&amp;")"</f>
+        <f t="shared" ref="N8:N71" si="1">M8&amp;" ("&amp;AU8&amp;")"</f>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -12324,11 +12197,11 @@
         <v>1572</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(G9=H9,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>B9&amp;"."&amp;C9</f>
+        <f t="shared" ref="J9:J36" si="2">B9&amp;"."&amp;C9</f>
         <v>10.21</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -12341,7 +12214,7 @@
         <v>1872</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f>M9&amp;" ("&amp;AU9&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>60-100 (or less*) (SCR/SECR: Tobler &amp; Powell, 2013)</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -12428,11 +12301,11 @@
         <v>1548</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(G10=H10,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>B10&amp;"."&amp;C10</f>
+        <f t="shared" si="2"/>
         <v>9.11</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -12445,7 +12318,7 @@
         <v>1756</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f>M10&amp;" ("&amp;AU10&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 60-120 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -12532,11 +12405,11 @@
         <v>1533</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(G11=H11,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>B11&amp;"."&amp;C11</f>
+        <f t="shared" si="2"/>
         <v>8.8</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -12549,7 +12422,7 @@
         <v>1756</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f>M11&amp;" ("&amp;AU11&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -12634,11 +12507,11 @@
         <v>1771</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(G12=H12,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J12" s="75" t="str">
-        <f>B12&amp;"."&amp;C12</f>
+        <f t="shared" si="2"/>
         <v>6.23</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -12651,7 +12524,7 @@
         <v>1770</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f>M12&amp;" ("&amp;AU12&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>60-100 (Royle et al., 2009)</v>
       </c>
       <c r="O12" s="74" t="s">
@@ -12738,11 +12611,11 @@
         <v>1558</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(G13=H13,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>B13&amp;"."&amp;C13</f>
+        <f t="shared" si="2"/>
         <v>10.1</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -12753,7 +12626,7 @@
         <v>1864</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f>M13&amp;" ("&amp;AU13&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally regular, closely-spaced cameras (relative to home range size) [due to the increased likelihood of capturing both sides of the animal (Augustine et al., 2018)] (Augustine et al., 2018)</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -12842,11 +12715,11 @@
         <v>1562</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(G14=H14,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>B14&amp;"."&amp;C14</f>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -12857,7 +12730,7 @@
         <v>1869</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f>M14&amp;" ("&amp;AU14&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are the same as SCR; however, more flexible ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023])</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -12946,11 +12819,11 @@
         <v>1559</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IF(G15=H15,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>B15&amp;"."&amp;C15</f>
+        <f t="shared" si="2"/>
         <v>10.2</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -12961,7 +12834,7 @@
         <v>169</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f>M15&amp;" ("&amp;AU15&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Paired ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -13048,11 +12921,11 @@
         <v>1560</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IF(G16=H16,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f>B16&amp;"."&amp;C16</f>
+        <f t="shared" si="2"/>
         <v>10.3</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -13063,7 +12936,7 @@
         <v>250</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f>M16&amp;" ("&amp;AU16&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Clustered ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -13150,11 +13023,11 @@
         <v>1561</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IF(G17=H17,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>B17&amp;"."&amp;C17</f>
+        <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -13165,7 +13038,7 @@
         <v>95</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f>M17&amp;" ("&amp;AU17&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Systematic ([Same as SCR: Augustine et al., 2018; Clarke et al., 2023][SCR/SECR: Clarke et al., 2023])</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -13252,11 +13125,11 @@
         <v>1579</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IF(G18=H18,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f>B18&amp;"."&amp;C18</f>
+        <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -13267,7 +13140,7 @@
         <v>1868</v>
       </c>
       <c r="N18" s="3" t="str">
-        <f>M18&amp;" ("&amp;AU18&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Enough for 20-50 recaptures (or less*) ([Krebs et al., 2011; Clarke et al., 2023][Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O18" s="7" t="s">
@@ -13358,11 +13231,11 @@
         <v>1568</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(G19=H19,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f>B19&amp;"."&amp;C19</f>
+        <f t="shared" si="2"/>
         <v>10.12</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -13373,7 +13246,7 @@
         <v>1874</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f>M19&amp;" ("&amp;AU19&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Rovero et al., 2013; Augustine et al., 2018)</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -13462,11 +13335,11 @@
         <v>1563</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IF(G20=H20,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>B20&amp;"."&amp;C20</f>
+        <f t="shared" si="2"/>
         <v>10.7</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -13477,7 +13350,7 @@
         <v>1913</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f>M20&amp;" ("&amp;AU20&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;&lt; home range diameter (minimum)&lt;/b&gt; (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -13568,11 +13441,11 @@
         <v>1564</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(G21=H21,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>B21&amp;"."&amp;C21</f>
+        <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -13583,7 +13456,7 @@
         <v>1763</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f>M21&amp;" ("&amp;AU21&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally 1/3 the home range radius (~4-7 camera per home range) (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -13672,11 +13545,11 @@
         <v>1566</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(G22=H22,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>B22&amp;"."&amp;C22</f>
+        <f t="shared" si="2"/>
         <v>10.10</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -13687,7 +13560,7 @@
         <v>1912</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f>M22&amp;" ("&amp;AU22&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 0.8 times the home range radius (maximum)&lt;/b&gt; (SCR/SECR: Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -13778,11 +13651,11 @@
         <v>1565</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(G23=H23,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f>B23&amp;"."&amp;C23</f>
+        <f t="shared" si="2"/>
         <v>10.9</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -13793,7 +13666,7 @@
         <v>1864</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f>M23&amp;" ("&amp;AU23&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally regular, closely-spaced cameras (relative to home range size) [due to the increased likelihood of capturing both sides of the animal (Augustine et al., 2018)] ([*ix,] Augustine et al., 2018)</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -13880,11 +13753,11 @@
         <v>1567</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(G24=H24,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f>B24&amp;"."&amp;C24</f>
+        <f t="shared" si="2"/>
         <v>10.11</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -13895,7 +13768,7 @@
         <v>670</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f>M24&amp;" ("&amp;AU24&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Note: larger sampling areas preferred since there will be fewer samples collected on the periphery of the sampled area and thus less uncertainty in identifying individuals ( Augustine et al., 2018)</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -13984,11 +13857,11 @@
         <v>1577</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(G25=H25,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f>B25&amp;"."&amp;C25</f>
+        <f t="shared" si="2"/>
         <v>10.17</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -13999,7 +13872,7 @@
         <v>1874</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f>M25&amp;" ("&amp;AU25&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Augustine et al., 2018; Clarke et al., 2023)</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -14086,11 +13959,11 @@
         <v>1574</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(G26=H26,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>B26&amp;"."&amp;C26</f>
+        <f t="shared" si="2"/>
         <v>10.13</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -14101,7 +13974,7 @@
         <v>1739</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f>M26&amp;" ("&amp;AU26&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 30 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -14188,11 +14061,11 @@
         <v>1575</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(G27=H27,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f>B27&amp;"."&amp;C27</f>
+        <f t="shared" si="2"/>
         <v>10.14</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -14203,7 +14076,7 @@
         <v>1758</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f>M27&amp;" ("&amp;AU27&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 60 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O27" s="3" t="s">
@@ -14290,11 +14163,11 @@
         <v>1576</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(G28=H28,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f>B28&amp;"."&amp;C28</f>
+        <f t="shared" si="2"/>
         <v>10.15</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -14305,7 +14178,7 @@
         <v>1756</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f>M28&amp;" ("&amp;AU28&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 60-120 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O28" s="3" t="s">
@@ -14392,11 +14265,11 @@
         <v>1573</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(G29=H29,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f>B29&amp;"."&amp;C29</f>
+        <f t="shared" si="2"/>
         <v>10.22</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -14407,7 +14280,7 @@
         <v>1871</v>
       </c>
       <c r="N29" s="3" t="str">
-        <f>M29&amp;" ("&amp;AU29&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are relative to fewer cameras than SCR (or same but larger sampling area) ([vii] Augustine et al., 2018)</v>
       </c>
       <c r="O29" s="5" t="s">
@@ -14494,11 +14367,11 @@
         <v>1569</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IF(G30=H30,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>B30&amp;"."&amp;C30</f>
+        <f t="shared" si="2"/>
         <v>10.18</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -14509,7 +14382,7 @@
         <v>1894</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f>M30&amp;" ("&amp;AU30&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (SCR/SECR: White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O30" s="5" t="s">
@@ -14600,11 +14473,11 @@
         <v>1570</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IF(G31=H31,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>B31&amp;"."&amp;C31</f>
+        <f t="shared" si="2"/>
         <v>10.19</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -14615,7 +14488,7 @@
         <v>1775</v>
       </c>
       <c r="N31" s="3" t="str">
-        <f>M31&amp;" ("&amp;AU31&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 4 per home range (or less*) (SCR/SECR: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O31" s="5" t="s">
@@ -14702,11 +14575,11 @@
         <v>1571</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IF(G32=H32,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>B32&amp;"."&amp;C32</f>
+        <f t="shared" si="2"/>
         <v>10.20</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -14717,7 +14590,7 @@
         <v>1873</v>
       </c>
       <c r="N32" s="3" t="str">
-        <f>M32&amp;" ("&amp;AU32&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>If used suggested 4 camera per home range, 40-120 (or less*) (SCR/SECR: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O32" s="5" t="s">
@@ -14808,11 +14681,11 @@
         <v>1583</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IF(G33=H33,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>B33&amp;"."&amp;C33</f>
+        <f t="shared" si="2"/>
         <v>10.26</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -14823,7 +14696,7 @@
         <v>1874</v>
       </c>
       <c r="N33" s="3" t="str">
-        <f>M33&amp;" ("&amp;AU33&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are the same as SCR (or less) (Augustine et al., 2018; Clarke et al., 2023)</v>
       </c>
       <c r="O33" s="5" t="s">
@@ -14910,11 +14783,11 @@
         <v>1580</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IF(G34=H34,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>B34&amp;"."&amp;C34</f>
+        <f t="shared" si="2"/>
         <v>10.23</v>
       </c>
       <c r="K34" s="3" t="s">
@@ -14925,7 +14798,7 @@
         <v>1899</v>
       </c>
       <c r="N34" s="3" t="str">
-        <f>M34&amp;" ("&amp;AU34&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O34" s="36" t="s">
@@ -15016,11 +14889,11 @@
         <v>1581</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IF(G35=H35,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>B35&amp;"."&amp;C35</f>
+        <f t="shared" si="2"/>
         <v>10.24</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -15031,7 +14904,7 @@
         <v>1273</v>
       </c>
       <c r="N35" s="3" t="str">
-        <f>M35&amp;" ("&amp;AU35&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally &gt; 12 months total (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O35" s="5" t="s">
@@ -15118,11 +14991,11 @@
         <v>1582</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IF(G36=H36,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>B36&amp;"."&amp;C36</f>
+        <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
       <c r="K36" s="3" t="s">
@@ -15133,7 +15006,7 @@
         <v>495</v>
       </c>
       <c r="N36" s="3" t="str">
-        <f>M36&amp;" ("&amp;AU36&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O36" s="5" t="s">
@@ -15220,11 +15093,11 @@
         <v>1697</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IF(G37=H37,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IF(C37&lt;10,(B37&amp;".0"&amp;C37),(B37&amp;"."&amp;C37))</f>
+        <f t="shared" ref="J37:J47" si="3">IF(C37&lt;10,(B37&amp;".0"&amp;C37),(B37&amp;"."&amp;C37))</f>
         <v>18.01</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -15235,7 +15108,7 @@
         <v>140</v>
       </c>
       <c r="N37" s="3" t="str">
-        <f>M37&amp;" ("&amp;AU37&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -15320,11 +15193,11 @@
         <v>1698</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IF(G38=H38,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IF(C38&lt;10,(B38&amp;".0"&amp;C38),(B38&amp;"."&amp;C38))</f>
+        <f t="shared" si="3"/>
         <v>18.02</v>
       </c>
       <c r="K38" s="3" t="s">
@@ -15335,7 +15208,7 @@
         <v>131</v>
       </c>
       <c r="N38" s="3" t="str">
-        <f>M38&amp;" ("&amp;AU38&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Stratified (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O38" s="3" t="s">
@@ -15420,11 +15293,11 @@
         <v>1699</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IF(G39=H39,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IF(C39&lt;10,(B39&amp;".0"&amp;C39),(B39&amp;"."&amp;C39))</f>
+        <f t="shared" si="3"/>
         <v>18.03</v>
       </c>
       <c r="K39" s="3" t="s">
@@ -15435,7 +15308,7 @@
         <v>39</v>
       </c>
       <c r="N39" s="3" t="str">
-        <f>M39&amp;" ("&amp;AU39&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Targeted (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O39" s="3" t="s">
@@ -15520,11 +15393,11 @@
         <v>1706</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IF(G40=H40,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IF(C40&lt;10,(B40&amp;".0"&amp;C40),(B40&amp;"."&amp;C40))</f>
+        <f t="shared" si="3"/>
         <v>18.04</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -15535,7 +15408,7 @@
         <v>183</v>
       </c>
       <c r="N40" s="3" t="str">
-        <f>M40&amp;" ("&amp;AU40&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="O40" s="7" t="s">
@@ -15620,11 +15493,11 @@
         <v>1700</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IF(G41=H41,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IF(C41&lt;10,(B41&amp;".0"&amp;C41),(B41&amp;"."&amp;C41))</f>
+        <f t="shared" si="3"/>
         <v>18.05</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -15635,7 +15508,7 @@
         <v>645</v>
       </c>
       <c r="N41" s="3" t="str">
-        <f>M41&amp;" ("&amp;AU41&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Objective-dependent (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -15722,11 +15595,11 @@
         <v>1701</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IF(G42=H42,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IF(C42&lt;10,(B42&amp;".0"&amp;C42),(B42&amp;"."&amp;C42))</f>
+        <f t="shared" si="3"/>
         <v>18.06</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -15737,7 +15610,7 @@
         <v>1838</v>
       </c>
       <c r="N42" s="3" t="str">
-        <f>M42&amp;" ("&amp;AU42&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally independant (&gt; home range diameter) (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="O42" s="3" t="s">
@@ -15824,11 +15697,11 @@
         <v>1702</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IF(G43=H43,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IF(C43&lt;10,(B43&amp;".0"&amp;C43),(B43&amp;"."&amp;C43))</f>
+        <f t="shared" si="3"/>
         <v>18.07</v>
       </c>
       <c r="K43" s="3" t="s">
@@ -15839,7 +15712,7 @@
         <v>1836</v>
       </c>
       <c r="N43" s="3" t="str">
-        <f>M43&amp;" ("&amp;AU43&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally independant (&gt; 1 km) (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="O43" s="3" t="s">
@@ -15926,11 +15799,11 @@
         <v>1705</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IF(G44=H44,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IF(C44&lt;10,(B44&amp;".0"&amp;C44),(B44&amp;"."&amp;C44))</f>
+        <f t="shared" si="3"/>
         <v>18.08</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -15941,7 +15814,7 @@
         <v>183</v>
       </c>
       <c r="N44" s="3" t="str">
-        <f>M44&amp;" ("&amp;AU44&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="O44" s="7" t="s">
@@ -16026,11 +15899,11 @@
         <v>1703</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IF(G45=H45,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IF(C45&lt;10,(B45&amp;".0"&amp;C45),(B45&amp;"."&amp;C45))</f>
+        <f t="shared" si="3"/>
         <v>18.09</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -16041,7 +15914,7 @@
         <v>176</v>
       </c>
       <c r="N45" s="3" t="str">
-        <f>M45&amp;" ("&amp;AU45&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Activity patterns: Enough to obtain &gt; 100 detections (Ridout &amp; Linkie, 2009; Rowcliffe et al., 2014)</v>
       </c>
       <c r="O45" s="5" t="s">
@@ -16124,11 +15997,11 @@
         <v>1704</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IF(G46=H46,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IF(C46&lt;10,(B46&amp;".0"&amp;C46),(B46&amp;"."&amp;C46))</f>
+        <f t="shared" si="3"/>
         <v>18.10</v>
       </c>
       <c r="K46" s="3" t="s">
@@ -16139,7 +16012,7 @@
         <v>1789</v>
       </c>
       <c r="N46" s="3" t="str">
-        <f>M46&amp;" ("&amp;AU46&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 20 per stratum (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O46" s="5" t="s">
@@ -16226,11 +16099,11 @@
         <v>1707</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IF(G47=H47,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IF(C47&lt;10,(B47&amp;".0"&amp;C47),(B47&amp;"."&amp;C47))</f>
+        <f t="shared" si="3"/>
         <v>18.11</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -16241,7 +16114,7 @@
         <v>656</v>
       </c>
       <c r="N47" s="3" t="str">
-        <f>M47&amp;" ("&amp;AU47&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Dependent on behavioural metric (e.g., if it occurs during a certain period) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O47" s="5" t="s">
@@ -16328,11 +16201,11 @@
         <v>1539</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IF(G48=H48,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>B48&amp;"."&amp;C48</f>
+        <f t="shared" ref="J48:J85" si="4">B48&amp;"."&amp;C48</f>
         <v>9.1</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -16343,7 +16216,7 @@
         <v>67</v>
       </c>
       <c r="N48" s="3" t="str">
-        <f>M48&amp;" ("&amp;AU48&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Systematic random ([Same as SC: Rovero et al., 2013; Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022][SC: Sun et al., 2014; Clark, 2019; Clarke et al., 2023])</v>
       </c>
       <c r="O48" s="3" t="s">
@@ -16430,11 +16303,11 @@
         <v>1540</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IF(G49=H49,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>B49&amp;"."&amp;C49</f>
+        <f t="shared" si="4"/>
         <v>9.2</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -16445,7 +16318,7 @@
         <v>250</v>
       </c>
       <c r="N49" s="3" t="str">
-        <f>M49&amp;" ("&amp;AU49&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Clustered ([Same as SC: Rovero et al., 2013; Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022][SC: Sun et al., 2014; Clark, 2019; Clarke et al., 2023])</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -16532,11 +16405,11 @@
         <v>1550</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IF(G50=H50,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>B50&amp;"."&amp;C50</f>
+        <f t="shared" si="4"/>
         <v>9.3</v>
       </c>
       <c r="K50" s="3" t="s">
@@ -16547,7 +16420,7 @@
         <v>183</v>
       </c>
       <c r="N50" s="3" t="str">
-        <f>M50&amp;" ("&amp;AU50&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>No recommendation (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O50" s="7" t="s">
@@ -16634,11 +16507,11 @@
         <v>1551</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IF(G51=H51,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>B51&amp;"."&amp;C51</f>
+        <f t="shared" si="4"/>
         <v>9.4</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -16649,7 +16522,7 @@
         <v>1744</v>
       </c>
       <c r="N51" s="3" t="str">
-        <f>M51&amp;" ("&amp;AU51&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 1000 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O51" s="11" t="s">
@@ -16736,11 +16609,11 @@
         <v>1552</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IF(G52=H52,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>B52&amp;"."&amp;C52</f>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="K52" s="3" t="s">
@@ -16751,7 +16624,7 @@
         <v>1743</v>
       </c>
       <c r="N52" s="3" t="str">
-        <f>M52&amp;" ("&amp;AU52&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 1200 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O52" s="11" t="s">
@@ -16840,11 +16713,11 @@
         <v>1553</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IF(G53=H53,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>B53&amp;"."&amp;C53</f>
+        <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
       <c r="K53" s="3" t="s">
@@ -16855,7 +16728,7 @@
         <v>1742</v>
       </c>
       <c r="N53" s="3" t="str">
-        <f>M53&amp;" ("&amp;AU53&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 3500 ([Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023][Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O53" s="11" t="s">
@@ -16944,11 +16817,11 @@
         <v>1541</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IF(G54=H54,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>false</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>B54&amp;"."&amp;C54</f>
+        <f t="shared" si="4"/>
         <v>9.7</v>
       </c>
       <c r="K54" s="3" t="s">
@@ -16959,7 +16832,7 @@
         <v>232</v>
       </c>
       <c r="N54" s="3" t="str">
-        <f>M54&amp;" ("&amp;AU54&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Close enough that individuals will be detected at multiple locations (Royle et al., 2009; Clarke et al., 2023)</v>
       </c>
       <c r="O54" s="3" t="s">
@@ -17044,11 +16917,11 @@
         <v>1549</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IF(G55=H55,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>B55&amp;"."&amp;C55</f>
+        <f t="shared" si="4"/>
         <v>9.12</v>
       </c>
       <c r="K55" s="3" t="s">
@@ -17059,7 +16932,7 @@
         <v>1752</v>
       </c>
       <c r="N55" s="3" t="str">
-        <f>M55&amp;" ("&amp;AU55&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Note: these recommendations are the same as SCR or less (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O55" s="3" t="s">
@@ -17146,11 +17019,11 @@
         <v>1545</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IF(G56=H56,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>B56&amp;"."&amp;C56</f>
+        <f t="shared" si="4"/>
         <v>9.8</v>
       </c>
       <c r="K56" s="3" t="s">
@@ -17161,7 +17034,7 @@
         <v>1901</v>
       </c>
       <c r="N56" s="3" t="str">
-        <f>M56&amp;" ("&amp;AU56&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -17252,11 +17125,11 @@
         <v>1546</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IF(G57=H57,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>B57&amp;"."&amp;C57</f>
+        <f t="shared" si="4"/>
         <v>9.9</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -17267,7 +17140,7 @@
         <v>1739</v>
       </c>
       <c r="N57" s="3" t="str">
-        <f>M57&amp;" ("&amp;AU57&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>≥ 30 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O57" s="3" t="s">
@@ -17354,11 +17227,11 @@
         <v>1547</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IF(G58=H58,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>B58&amp;"."&amp;C58</f>
+        <f t="shared" si="4"/>
         <v>9.10</v>
       </c>
       <c r="K58" s="3" t="s">
@@ -17369,7 +17242,7 @@
         <v>1758</v>
       </c>
       <c r="N58" s="3" t="str">
-        <f>M58&amp;" ("&amp;AU58&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 60 (Sun et al., 2014; Augustine et al., 2019; Sun et al., 2022; Clarke et al., 2023)</v>
       </c>
       <c r="O58" s="3" t="s">
@@ -17456,11 +17329,11 @@
         <v>1544</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IF(G59=H59,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>B59&amp;"."&amp;C59</f>
+        <f t="shared" si="4"/>
         <v>9.15</v>
       </c>
       <c r="K59" s="3" t="s">
@@ -17471,7 +17344,7 @@
         <v>1752</v>
       </c>
       <c r="N59" s="3" t="str">
-        <f>M59&amp;" ("&amp;AU59&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Note: these recommendations are the same as SCR or less (Sun et al., 2022)</v>
       </c>
       <c r="O59" s="5" t="s">
@@ -17560,11 +17433,11 @@
         <v>1542</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IF(G60=H60,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>B60&amp;"."&amp;C60</f>
+        <f t="shared" si="4"/>
         <v>9.13</v>
       </c>
       <c r="K60" s="3" t="s">
@@ -17575,7 +17448,7 @@
         <v>1900</v>
       </c>
       <c r="N60" s="3" t="str">
-        <f>M60&amp;" ("&amp;AU60&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="O60" s="5" t="s">
@@ -17666,11 +17539,11 @@
         <v>1543</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IF(G61=H61,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>B61&amp;"."&amp;C61</f>
+        <f t="shared" si="4"/>
         <v>9.14</v>
       </c>
       <c r="K61" s="3" t="s">
@@ -17681,7 +17554,7 @@
         <v>706</v>
       </c>
       <c r="N61" s="3" t="str">
-        <f>M61&amp;" ("&amp;AU61&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="O61" s="5" t="s">
@@ -17770,11 +17643,11 @@
         <v>1557</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IF(G62=H62,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>B62&amp;"."&amp;C62</f>
+        <f t="shared" si="4"/>
         <v>9.19</v>
       </c>
       <c r="K62" s="3" t="s">
@@ -17785,7 +17658,7 @@
         <v>1910</v>
       </c>
       <c r="N62" s="3" t="str">
-        <f>M62&amp;" ("&amp;AU62&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>*Note: these recommendations are the same as SC (or less) (such that identity traits [e.g., antlers present/ absent] don’t change (Sun et al., 2014)</v>
       </c>
       <c r="O62" s="5" t="s">
@@ -17872,11 +17745,11 @@
         <v>1554</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IF(G63=H63,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>B63&amp;"."&amp;C63</f>
+        <f t="shared" si="4"/>
         <v>9.16</v>
       </c>
       <c r="K63" s="3" t="s">
@@ -17887,7 +17760,7 @@
         <v>1899</v>
       </c>
       <c r="N63" s="3" t="str">
-        <f>M63&amp;" ("&amp;AU63&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O63" s="36" t="s">
@@ -17978,11 +17851,11 @@
         <v>1555</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IF(G64=H64,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>B64&amp;"."&amp;C64</f>
+        <f t="shared" si="4"/>
         <v>9.17</v>
       </c>
       <c r="K64" s="3" t="s">
@@ -17993,7 +17866,7 @@
         <v>1273</v>
       </c>
       <c r="N64" s="3" t="str">
-        <f>M64&amp;" ("&amp;AU64&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally &gt; 12 months total (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O64" s="5" t="s">
@@ -18080,11 +17953,11 @@
         <v>1556</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IF(G65=H65,"false","TRUE")</f>
+        <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f>B65&amp;"."&amp;C65</f>
+        <f t="shared" si="4"/>
         <v>9.18</v>
       </c>
       <c r="K65" s="3" t="s">
@@ -18095,7 +17968,7 @@
         <v>495</v>
       </c>
       <c r="N65" s="3" t="str">
-        <f>M65&amp;" ("&amp;AU65&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O65" s="5" t="s">
@@ -18182,11 +18055,11 @@
         <v>1463</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IF(G66=H66,"false","TRUE")</f>
+        <f t="shared" ref="I66:I129" si="5">IF(G66=H66,"false","TRUE")</f>
         <v>false</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f>B66&amp;"."&amp;C66</f>
+        <f t="shared" si="4"/>
         <v>5.1</v>
       </c>
       <c r="K66" s="3" t="s">
@@ -18197,7 +18070,7 @@
         <v>138</v>
       </c>
       <c r="N66" s="3" t="str">
-        <f>M66&amp;" ("&amp;AU66&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Ideally paired or random ([*ii] Tobler et al., 2008; Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O66" s="3" t="s">
@@ -18284,11 +18157,11 @@
         <v>1465</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IF(G67=H67,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f>B67&amp;"."&amp;C67</f>
+        <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
       <c r="K67" s="3" t="s">
@@ -18299,7 +18172,7 @@
         <v>39</v>
       </c>
       <c r="N67" s="3" t="str">
-        <f>M67&amp;" ("&amp;AU67&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Targeted ([*iii] Tobler et al., 2008; Sollmann et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O67" s="3" t="s">
@@ -18386,11 +18259,11 @@
         <v>1466</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IF(G68=H68,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f>B68&amp;"."&amp;C68</f>
+        <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
       <c r="K68" s="3" t="s">
@@ -18401,7 +18274,7 @@
         <v>39</v>
       </c>
       <c r="N68" s="3" t="str">
-        <f>M68&amp;" ("&amp;AU68&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Targeted (Rovero et al., 2013)</v>
       </c>
       <c r="O68" s="3" t="s">
@@ -18488,11 +18361,11 @@
         <v>1467</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IF(G69=H69,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f>B69&amp;"."&amp;C69</f>
+        <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
       <c r="K69" s="3" t="s">
@@ -18503,7 +18376,7 @@
         <v>95</v>
       </c>
       <c r="N69" s="3" t="str">
-        <f>M69&amp;" ("&amp;AU69&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Systematic (Clarke et al., 2023)</v>
       </c>
       <c r="O69" s="3" t="s">
@@ -18588,11 +18461,11 @@
         <v>1478</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>IF(G70=H70,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f>B70&amp;"."&amp;C70</f>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="K70" s="3" t="s">
@@ -18603,7 +18476,7 @@
         <v>1744</v>
       </c>
       <c r="N70" s="3" t="str">
-        <f>M70&amp;" ("&amp;AU70&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O70" s="7" t="s">
@@ -18686,11 +18559,11 @@
         <v>1479</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IF(G71=H71,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f>B71&amp;"."&amp;C71</f>
+        <f t="shared" si="4"/>
         <v>5.6</v>
       </c>
       <c r="K71" s="3" t="s">
@@ -18701,7 +18574,7 @@
         <v>1743</v>
       </c>
       <c r="N71" s="3" t="str">
-        <f>M71&amp;" ("&amp;AU71&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O71" s="7" t="s">
@@ -18786,11 +18659,11 @@
         <v>1480</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>IF(G72=H72,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f>B72&amp;"."&amp;C72</f>
+        <f t="shared" si="4"/>
         <v>5.7</v>
       </c>
       <c r="K72" s="3" t="s">
@@ -18801,7 +18674,7 @@
         <v>1742</v>
       </c>
       <c r="N72" s="3" t="str">
-        <f>M72&amp;" ("&amp;AU72&amp;")"</f>
+        <f t="shared" ref="N72:N135" si="6">M72&amp;" ("&amp;AU72&amp;")"</f>
         <v>&gt; 3500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O72" s="7" t="s">
@@ -18886,11 +18759,11 @@
         <v>1468</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IF(G73=H73,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f>B73&amp;"."&amp;C73</f>
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
       <c r="K73" s="3" t="s">
@@ -18901,7 +18774,7 @@
         <v>681</v>
       </c>
       <c r="N73" s="3" t="str">
-        <f>M73&amp;" ("&amp;AU73&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Spatially dependent ([*iv] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O73" s="3" t="s">
@@ -18988,11 +18861,11 @@
         <v>1469</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IF(G74=H74,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f>B74&amp;"."&amp;C74</f>
+        <f t="shared" si="4"/>
         <v>5.9</v>
       </c>
       <c r="K74" s="3" t="s">
@@ -19003,7 +18876,7 @@
         <v>1765</v>
       </c>
       <c r="N74" s="3" t="str">
-        <f>M74&amp;" ("&amp;AU74&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt; home range diameter ([*v] Rovero et al., 2013)</v>
       </c>
       <c r="O74" s="3" t="s">
@@ -19090,11 +18963,11 @@
         <v>1470</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IF(G75=H75,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f>B75&amp;"."&amp;C75</f>
+        <f t="shared" si="4"/>
         <v>5.10</v>
       </c>
       <c r="K75" s="3" t="s">
@@ -19105,7 +18978,7 @@
         <v>487</v>
       </c>
       <c r="N75" s="3" t="str">
-        <f>M75&amp;" ("&amp;AU75&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1-4 km is typical (Tobler et al., 2008;  Sollmann et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O75" s="3" t="s">
@@ -19190,11 +19063,11 @@
         <v>1474</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IF(G76=H76,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f>B76&amp;"."&amp;C76</f>
+        <f t="shared" si="4"/>
         <v>5.11</v>
       </c>
       <c r="K76" s="3" t="s">
@@ -19205,7 +19078,7 @@
         <v>1739</v>
       </c>
       <c r="N76" s="3" t="str">
-        <f>M76&amp;" ("&amp;AU76&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O76" s="3" t="s">
@@ -19290,11 +19163,11 @@
         <v>1475</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IF(G77=H77,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f>B77&amp;"."&amp;C77</f>
+        <f t="shared" si="4"/>
         <v>5.12</v>
       </c>
       <c r="K77" s="3" t="s">
@@ -19305,7 +19178,7 @@
         <v>1758</v>
       </c>
       <c r="N77" s="3" t="str">
-        <f>M77&amp;" ("&amp;AU77&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O77" s="3" t="s">
@@ -19390,11 +19263,11 @@
         <v>1476</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IF(G78=H78,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f>B78&amp;"."&amp;C78</f>
+        <f t="shared" si="4"/>
         <v>5.13</v>
       </c>
       <c r="K78" s="3" t="s">
@@ -19405,7 +19278,7 @@
         <v>1756</v>
       </c>
       <c r="N78" s="3" t="str">
-        <f>M78&amp;" ("&amp;AU78&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O78" s="3" t="s">
@@ -19490,11 +19363,11 @@
         <v>1471</v>
       </c>
       <c r="I79" s="3" t="str">
-        <f>IF(G79=H79,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f>B79&amp;"."&amp;C79</f>
+        <f t="shared" si="4"/>
         <v>5.14</v>
       </c>
       <c r="K79" s="3" t="s">
@@ -19505,7 +19378,7 @@
         <v>1909</v>
       </c>
       <c r="N79" s="3" t="str">
-        <f>M79&amp;" ("&amp;AU79&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;Enough to encompass the home ranges of 5-10 individuals (minumum)&lt;/b&gt; ( Krebs et al., 2011; Noss et al., 2012; Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O79" s="5" t="s">
@@ -19594,11 +19467,11 @@
         <v>1472</v>
       </c>
       <c r="I80" s="3" t="str">
-        <f>IF(G80=H80,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f>B80&amp;"."&amp;C80</f>
+        <f t="shared" si="4"/>
         <v>5.15</v>
       </c>
       <c r="K80" s="3" t="s">
@@ -19609,7 +19482,7 @@
         <v>1783</v>
       </c>
       <c r="N80" s="3" t="str">
-        <f>M80&amp;" ("&amp;AU80&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>≥ 2 per smallest home range (Karanth &amp; Nichols, 1998; Rovero et al., 2013)</v>
       </c>
       <c r="O80" s="5" t="s">
@@ -19694,11 +19567,11 @@
         <v>1473</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f>IF(G81=H81,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f>B81&amp;"."&amp;C81</f>
+        <f t="shared" si="4"/>
         <v>5.16</v>
       </c>
       <c r="K81" s="3" t="s">
@@ -19709,7 +19582,7 @@
         <v>1782</v>
       </c>
       <c r="N81" s="3" t="str">
-        <f>M81&amp;" ("&amp;AU81&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&gt; 2-4 per smallest home range (Rovero et al., 2013)</v>
       </c>
       <c r="O81" s="5" t="s">
@@ -19794,11 +19667,11 @@
         <v>1481</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f>IF(G82=H82,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f>B82&amp;"."&amp;C82</f>
+        <f t="shared" si="4"/>
         <v>5.17</v>
       </c>
       <c r="K82" s="3" t="s">
@@ -19809,7 +19682,7 @@
         <v>371</v>
       </c>
       <c r="N82" s="3" t="str">
-        <f>M82&amp;" ("&amp;AU82&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>As short as possible (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O82" s="5" t="s">
@@ -19894,11 +19767,11 @@
         <v>1482</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f>IF(G83=H83,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f>B83&amp;"."&amp;C83</f>
+        <f t="shared" si="4"/>
         <v>5.18</v>
       </c>
       <c r="K83" s="3" t="s">
@@ -19909,7 +19782,7 @@
         <v>379</v>
       </c>
       <c r="N83" s="3" t="str">
-        <f>M83&amp;" ("&amp;AU83&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&gt; 60 recaptures (Rovero et al., 2013)</v>
       </c>
       <c r="O83" s="5" t="s">
@@ -19996,11 +19869,11 @@
         <v>1483</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f>IF(G84=H84,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f>B84&amp;"."&amp;C84</f>
+        <f t="shared" si="4"/>
         <v>5.19</v>
       </c>
       <c r="K84" s="3" t="s">
@@ -20011,7 +19884,7 @@
         <v>276</v>
       </c>
       <c r="N84" s="3" t="str">
-        <f>M84&amp;" ("&amp;AU84&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Species-dependent (Tobler et al., 2008; Sollmann et al., 2012)</v>
       </c>
       <c r="O84" s="5" t="s">
@@ -20098,11 +19971,11 @@
         <v>1484</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f>IF(G85=H85,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f>B85&amp;"."&amp;C85</f>
+        <f t="shared" si="4"/>
         <v>5.20</v>
       </c>
       <c r="K85" s="3" t="s">
@@ -20113,7 +19986,7 @@
         <v>574</v>
       </c>
       <c r="N85" s="3" t="str">
-        <f>M85&amp;" ("&amp;AU85&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally &lt; 3 months (Tobler et al., 2008; Sollmann et al., 2012)</v>
       </c>
       <c r="O85" s="5" t="s">
@@ -20198,11 +20071,11 @@
         <v>1404</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>IF(G86=H86,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f>IF(C86&lt;10,(B86&amp;".0"&amp;C86),(B86&amp;"."&amp;C86))</f>
+        <f t="shared" ref="J86:J101" si="7">IF(C86&lt;10,(B86&amp;".0"&amp;C86),(B86&amp;"."&amp;C86))</f>
         <v>2.01</v>
       </c>
       <c r="K86" s="3" t="s">
@@ -20213,7 +20086,7 @@
         <v>140</v>
       </c>
       <c r="N86" s="3" t="str">
-        <f>M86&amp;" ("&amp;AU86&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally random (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O86" s="3" t="s">
@@ -20298,11 +20171,11 @@
         <v>1405</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>IF(G87=H87,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f>IF(C87&lt;10,(B87&amp;".0"&amp;C87),(B87&amp;"."&amp;C87))</f>
+        <f t="shared" si="7"/>
         <v>2.02</v>
       </c>
       <c r="K87" s="3" t="s">
@@ -20313,7 +20186,7 @@
         <v>131</v>
       </c>
       <c r="N87" s="3" t="str">
-        <f>M87&amp;" ("&amp;AU87&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Stratified (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O87" s="3" t="s">
@@ -20398,11 +20271,11 @@
         <v>1406</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>IF(G88=H88,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J88" s="4" t="str">
-        <f>IF(C88&lt;10,(B88&amp;".0"&amp;C88),(B88&amp;"."&amp;C88))</f>
+        <f t="shared" si="7"/>
         <v>2.03</v>
       </c>
       <c r="K88" s="3" t="s">
@@ -20413,7 +20286,7 @@
         <v>120</v>
       </c>
       <c r="N88" s="3" t="str">
-        <f>M88&amp;" ("&amp;AU88&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O88" s="3" t="s">
@@ -20498,11 +20371,11 @@
         <v>1407</v>
       </c>
       <c r="I89" s="3" t="str">
-        <f>IF(G89=H89,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J89" s="4" t="str">
-        <f>IF(C89&lt;10,(B89&amp;".0"&amp;C89),(B89&amp;"."&amp;C89))</f>
+        <f t="shared" si="7"/>
         <v>2.04</v>
       </c>
       <c r="K89" s="3" t="s">
@@ -20513,7 +20386,7 @@
         <v>250</v>
       </c>
       <c r="N89" s="3" t="str">
-        <f>M89&amp;" ("&amp;AU89&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Clustered ( O'Brien, 2010; O'Connell &amp; Bailey, 2011)</v>
       </c>
       <c r="O89" s="3" t="s">
@@ -20598,11 +20471,11 @@
         <v>1418</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>IF(G90=H90,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J90" s="4" t="str">
-        <f>IF(C90&lt;10,(B90&amp;".0"&amp;C90),(B90&amp;"."&amp;C90))</f>
+        <f t="shared" si="7"/>
         <v>2.05</v>
       </c>
       <c r="K90" s="3" t="s">
@@ -20613,7 +20486,7 @@
         <v>1833</v>
       </c>
       <c r="N90" s="3" t="str">
-        <f>M90&amp;" ("&amp;AU90&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Typically, 600-1500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O90" s="7" t="s">
@@ -20698,11 +20571,11 @@
         <v>1419</v>
       </c>
       <c r="I91" s="3" t="str">
-        <f>IF(G91=H91,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f>IF(C91&lt;10,(B91&amp;".0"&amp;C91),(B91&amp;"."&amp;C91))</f>
+        <f t="shared" si="7"/>
         <v>2.06</v>
       </c>
       <c r="K91" s="3" t="s">
@@ -20713,7 +20586,7 @@
         <v>1832</v>
       </c>
       <c r="N91" s="3" t="str">
-        <f>M91&amp;" ("&amp;AU91&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>≥ 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O91" s="7" t="s">
@@ -20796,11 +20669,11 @@
         <v>1408</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>IF(G92=H92,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f>IF(C92&lt;10,(B92&amp;".0"&amp;C92),(B92&amp;"."&amp;C92))</f>
+        <f t="shared" si="7"/>
         <v>2.07</v>
       </c>
       <c r="K92" s="3" t="s">
@@ -20811,7 +20684,7 @@
         <v>654</v>
       </c>
       <c r="N92" s="3" t="str">
-        <f>M92&amp;" ("&amp;AU92&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Spatially independent ([*i] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O92" s="3" t="s">
@@ -20898,11 +20771,11 @@
         <v>1409</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>IF(G93=H93,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f>IF(C93&lt;10,(B93&amp;".0"&amp;C93),(B93&amp;"."&amp;C93))</f>
+        <f t="shared" si="7"/>
         <v>2.08</v>
       </c>
       <c r="K93" s="3" t="s">
@@ -20913,7 +20786,7 @@
         <v>1831</v>
       </c>
       <c r="N93" s="3" t="str">
-        <f>M93&amp;" ("&amp;AU93&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally ≥ 1 km, but closer may be justified (Tobler et al., 2008; Cusack et al., 2015)</v>
       </c>
       <c r="O93" s="3" t="s">
@@ -21000,11 +20873,11 @@
         <v>1417</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>IF(G94=H94,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f>IF(C94&lt;10,(B94&amp;".0"&amp;C94),(B94&amp;"."&amp;C94))</f>
+        <f t="shared" si="7"/>
         <v>2.10</v>
       </c>
       <c r="K94" s="3" t="s">
@@ -21015,7 +20888,7 @@
         <v>1791</v>
       </c>
       <c r="N94" s="3" t="str">
-        <f>M94&amp;" ("&amp;AU94&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally ≥ 30 (Ahumada et al., 2011; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O94" s="3" t="s">
@@ -21100,11 +20973,11 @@
         <v>1412</v>
       </c>
       <c r="I95" s="3" t="str">
-        <f>IF(G95=H95,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f>IF(C95&lt;10,(B95&amp;".0"&amp;C95),(B95&amp;"."&amp;C95))</f>
+        <f t="shared" si="7"/>
         <v>2.12</v>
       </c>
       <c r="K95" s="3" t="s">
@@ -21115,7 +20988,7 @@
         <v>712</v>
       </c>
       <c r="N95" s="3" t="str">
-        <f>M95&amp;" ("&amp;AU95&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Commonly 30 (Ahumada et al., 2011)</v>
       </c>
       <c r="O95" s="5" t="s">
@@ -21200,11 +21073,11 @@
         <v>1413</v>
       </c>
       <c r="I96" s="3" t="str">
-        <f>IF(G96=H96,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f>IF(C96&lt;10,(B96&amp;".0"&amp;C96),(B96&amp;"."&amp;C96))</f>
+        <f t="shared" si="7"/>
         <v>2.13</v>
       </c>
       <c r="K96" s="3" t="s">
@@ -21215,7 +21088,7 @@
         <v>1790</v>
       </c>
       <c r="N96" s="3" t="str">
-        <f>M96&amp;" ("&amp;AU96&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally ≥ 50 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O96" s="5" t="s">
@@ -21300,11 +21173,11 @@
         <v>1414</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>IF(G97=H97,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f>IF(C97&lt;10,(B97&amp;".0"&amp;C97),(B97&amp;"."&amp;C97))</f>
+        <f t="shared" si="7"/>
         <v>2.14</v>
       </c>
       <c r="K97" s="3" t="s">
@@ -21315,7 +21188,7 @@
         <v>1789</v>
       </c>
       <c r="N97" s="3" t="str">
-        <f>M97&amp;" ("&amp;AU97&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>≥ 20 per stratum (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O97" s="5" t="s">
@@ -21402,11 +21275,11 @@
         <v>1415</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>IF(G98=H98,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f>IF(C98&lt;10,(B98&amp;".0"&amp;C98),(B98&amp;"."&amp;C98))</f>
+        <f t="shared" si="7"/>
         <v>2.15</v>
       </c>
       <c r="K98" s="3" t="s">
@@ -21417,7 +21290,7 @@
         <v>1824</v>
       </c>
       <c r="N98" s="3" t="str">
-        <f>M98&amp;" ("&amp;AU98&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>20-100 (Li et al., 2012; Ahumada et al., 2011; Wearn et al., 2016)</v>
       </c>
       <c r="O98" s="5" t="s">
@@ -21502,11 +21375,11 @@
         <v>1416</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>IF(G99=H99,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f>IF(C99&lt;10,(B99&amp;".0"&amp;C99),(B99&amp;"."&amp;C99))</f>
+        <f t="shared" si="7"/>
         <v>2.16</v>
       </c>
       <c r="K99" s="3" t="s">
@@ -21517,7 +21390,7 @@
         <v>460</v>
       </c>
       <c r="N99" s="3" t="str">
-        <f>M99&amp;" ("&amp;AU99&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>25-35, scale-dependent (Kays et al., 2020)</v>
       </c>
       <c r="O99" s="5" t="s">
@@ -21602,11 +21475,11 @@
         <v>1420</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>IF(G100=H100,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f>IF(C100&lt;10,(B100&amp;".0"&amp;C100),(B100&amp;"."&amp;C100))</f>
+        <f t="shared" si="7"/>
         <v>2.17</v>
       </c>
       <c r="K100" s="3" t="s">
@@ -21617,7 +21490,7 @@
         <v>566</v>
       </c>
       <c r="N100" s="3" t="str">
-        <f>M100&amp;" ("&amp;AU100&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally &lt; 6 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O100" s="5" t="s">
@@ -21702,11 +21575,11 @@
         <v>1421</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>IF(G101=H101,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f>IF(C101&lt;10,(B101&amp;".0"&amp;C101),(B101&amp;"."&amp;C101))</f>
+        <f t="shared" si="7"/>
         <v>2.18</v>
       </c>
       <c r="K101" s="3" t="s">
@@ -21717,7 +21590,7 @@
         <v>1822</v>
       </c>
       <c r="N101" s="3" t="str">
-        <f>M101&amp;" ("&amp;AU101&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>3-6 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O101" s="5" t="s">
@@ -21802,11 +21675,11 @@
         <v>1658</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>IF(G102=H102,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f>B102&amp;"."&amp;C102</f>
+        <f t="shared" ref="J102:J110" si="8">B102&amp;"."&amp;C102</f>
         <v>14.1</v>
       </c>
       <c r="K102" s="3" t="s">
@@ -21817,7 +21690,7 @@
         <v>150</v>
       </c>
       <c r="N102" s="3" t="str">
-        <f>M102&amp;" ("&amp;AU102&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Random with respect to movement, pointing in either random or consistent direction (Loonam et al., 2021; Clarke et al., 2023)</v>
       </c>
       <c r="O102" s="3" t="s">
@@ -21904,11 +21777,11 @@
         <v>1659</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>IF(G103=H103,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f>B103&amp;"."&amp;C103</f>
+        <f t="shared" si="8"/>
         <v>14.2</v>
       </c>
       <c r="K103" s="3" t="s">
@@ -21919,7 +21792,7 @@
         <v>95</v>
       </c>
       <c r="N103" s="3" t="str">
-        <f>M103&amp;" ("&amp;AU103&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="O103" s="3" t="s">
@@ -22004,11 +21877,11 @@
         <v>1660</v>
       </c>
       <c r="I104" s="3" t="str">
-        <f>IF(G104=H104,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J104" s="4" t="str">
-        <f>B104&amp;"."&amp;C104</f>
+        <f t="shared" si="8"/>
         <v>14.3</v>
       </c>
       <c r="K104" s="3" t="s">
@@ -22019,7 +21892,7 @@
         <v>136</v>
       </c>
       <c r="N104" s="3" t="str">
-        <f>M104&amp;" ("&amp;AU104&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Random (Loonam et al., 2021)</v>
       </c>
       <c r="O104" s="3" t="s">
@@ -22106,11 +21979,11 @@
         <v>1661</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>IF(G105=H105,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J105" s="4" t="str">
-        <f>B105&amp;"."&amp;C105</f>
+        <f t="shared" si="8"/>
         <v>14.4</v>
       </c>
       <c r="K105" s="3" t="s">
@@ -22121,7 +21994,7 @@
         <v>39</v>
       </c>
       <c r="N105" s="3" t="str">
-        <f>M105&amp;" ("&amp;AU105&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Targeted (Loonam et al., 2021)</v>
       </c>
       <c r="O105" s="3" t="s">
@@ -22208,11 +22081,11 @@
         <v>1665</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>IF(G106=H106,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J106" s="4" t="str">
-        <f>B106&amp;"."&amp;C106</f>
+        <f t="shared" si="8"/>
         <v>14.5</v>
       </c>
       <c r="K106" s="3" t="s">
@@ -22223,7 +22096,7 @@
         <v>208</v>
       </c>
       <c r="N106" s="3" t="str">
-        <f>M106&amp;" ("&amp;AU106&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="O106" s="7" t="s">
@@ -22308,11 +22181,11 @@
         <v>1662</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>IF(G107=H107,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J107" s="4" t="str">
-        <f>B107&amp;"."&amp;C107</f>
+        <f t="shared" si="8"/>
         <v>14.6</v>
       </c>
       <c r="K107" s="3" t="s">
@@ -22323,7 +22196,7 @@
         <v>648</v>
       </c>
       <c r="N107" s="3" t="str">
-        <f>M107&amp;" ("&amp;AU107&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on spatial extent of interest  (Moeller et al., 2023)</v>
       </c>
       <c r="O107" s="3" t="s">
@@ -22410,11 +22283,11 @@
         <v>1664</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>IF(G108=H108,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J108" s="4" t="str">
-        <f>B108&amp;"."&amp;C108</f>
+        <f t="shared" si="8"/>
         <v>14.7</v>
       </c>
       <c r="K108" s="3" t="s">
@@ -22425,7 +22298,7 @@
         <v>208</v>
       </c>
       <c r="N108" s="3" t="str">
-        <f>M108&amp;" ("&amp;AU108&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="O108" s="3" t="s">
@@ -22512,11 +22385,11 @@
         <v>1663</v>
       </c>
       <c r="I109" s="3" t="str">
-        <f>IF(G109=H109,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J109" s="4" t="str">
-        <f>B109&amp;"."&amp;C109</f>
+        <f t="shared" si="8"/>
         <v>14.8</v>
       </c>
       <c r="K109" s="3" t="s">
@@ -22527,7 +22400,7 @@
         <v>208</v>
       </c>
       <c r="N109" s="3" t="str">
-        <f>M109&amp;" ("&amp;AU109&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="O109" s="5" t="s">
@@ -22614,11 +22487,11 @@
         <v>1666</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f>IF(G110=H110,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J110" s="4" t="str">
-        <f>B110&amp;"."&amp;C110</f>
+        <f t="shared" si="8"/>
         <v>14.9</v>
       </c>
       <c r="K110" s="3" t="s">
@@ -22629,7 +22502,7 @@
         <v>208</v>
       </c>
       <c r="N110" s="3" t="str">
-        <f>M110&amp;" ("&amp;AU110&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on spatial extent of interest (Moeller et al., 2023)</v>
       </c>
       <c r="O110" s="5" t="s">
@@ -22714,11 +22587,11 @@
         <v>1393</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f>IF(G111=H111,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J111" s="4" t="str">
-        <f>IF(C111&lt;10,(B111&amp;".0"&amp;C111),(B111&amp;"."&amp;C111))</f>
+        <f t="shared" ref="J111:J121" si="9">IF(C111&lt;10,(B111&amp;".0"&amp;C111),(B111&amp;"."&amp;C111))</f>
         <v>1.01</v>
       </c>
       <c r="K111" s="3" t="s">
@@ -22729,7 +22602,7 @@
         <v>39</v>
       </c>
       <c r="N111" s="3" t="str">
-        <f>M111&amp;" ("&amp;AU111&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Targeted (Tobler et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O111" s="3" t="s">
@@ -22814,11 +22687,11 @@
         <v>1394</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>IF(G112=H112,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J112" s="4" t="str">
-        <f>IF(C112&lt;10,(B112&amp;".0"&amp;C112),(B112&amp;"."&amp;C112))</f>
+        <f t="shared" si="9"/>
         <v>1.02</v>
       </c>
       <c r="K112" s="3" t="s">
@@ -22829,7 +22702,7 @@
         <v>136</v>
       </c>
       <c r="N112" s="3" t="str">
-        <f>M112&amp;" ("&amp;AU112&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Random (Wearn et al., 2013)</v>
       </c>
       <c r="O112" s="3" t="s">
@@ -22916,11 +22789,11 @@
         <v>1402</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>IF(G113=H113,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J113" s="4" t="str">
-        <f>IF(C113&lt;10,(B113&amp;".0"&amp;C113),(B113&amp;"."&amp;C113))</f>
+        <f t="shared" si="9"/>
         <v>1.03</v>
       </c>
       <c r="K113" s="3" t="s">
@@ -22931,7 +22804,7 @@
         <v>1895</v>
       </c>
       <c r="N113" s="3" t="str">
-        <f>M113&amp;" ("&amp;AU113&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Tobler et al., 2008;  Wearn et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O113" s="7" t="s">
@@ -23018,11 +22891,11 @@
         <v>1395</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f>IF(G114=H114,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J114" s="4" t="str">
-        <f>IF(C114&lt;10,(B114&amp;".0"&amp;C114),(B114&amp;"."&amp;C114))</f>
+        <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
       <c r="K114" s="3" t="s">
@@ -23033,7 +22906,7 @@
         <v>1895</v>
       </c>
       <c r="N114" s="3" t="str">
-        <f>M114&amp;" ("&amp;AU114&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O114" s="3" t="s">
@@ -23120,11 +22993,11 @@
         <v>1396</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>IF(G115=H115,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J115" s="4" t="str">
-        <f>IF(C115&lt;10,(B115&amp;".0"&amp;C115),(B115&amp;"."&amp;C115))</f>
+        <f t="shared" si="9"/>
         <v>1.05</v>
       </c>
       <c r="K115" s="3" t="s">
@@ -23135,7 +23008,7 @@
         <v>499</v>
       </c>
       <c r="N115" s="3" t="str">
-        <f>M115&amp;" ("&amp;AU115&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally 1-2 km (Rovero et al., 2013; Colyn et al., 2017; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O115" s="3" t="s">
@@ -23220,11 +23093,11 @@
         <v>1399</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>IF(G116=H116,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J116" s="4" t="str">
-        <f>IF(C116&lt;10,(B116&amp;".0"&amp;C116),(B116&amp;"."&amp;C116))</f>
+        <f t="shared" si="9"/>
         <v>1.06</v>
       </c>
       <c r="K116" s="3" t="s">
@@ -23235,7 +23108,7 @@
         <v>1895</v>
       </c>
       <c r="N116" s="3" t="str">
-        <f>M116&amp;" ("&amp;AU116&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O116" s="3" t="s">
@@ -23322,11 +23195,11 @@
         <v>1400</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f>IF(G117=H117,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J117" s="4" t="str">
-        <f>IF(C117&lt;10,(B117&amp;".0"&amp;C117),(B117&amp;"."&amp;C117))</f>
+        <f t="shared" si="9"/>
         <v>1.07</v>
       </c>
       <c r="K117" s="3" t="s">
@@ -23337,7 +23210,7 @@
         <v>1791</v>
       </c>
       <c r="N117" s="3" t="str">
-        <f>M117&amp;" ("&amp;AU117&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O117" s="3" t="s">
@@ -23424,11 +23297,11 @@
         <v>1401</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>IF(G118=H118,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J118" s="4" t="str">
-        <f>IF(C118&lt;10,(B118&amp;".0"&amp;C118),(B118&amp;"."&amp;C118))</f>
+        <f t="shared" si="9"/>
         <v>1.08</v>
       </c>
       <c r="K118" s="3" t="s">
@@ -23439,7 +23312,7 @@
         <v>1878</v>
       </c>
       <c r="N118" s="3" t="str">
-        <f>M118&amp;" ("&amp;AU118&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt; 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O118" s="3" t="s">
@@ -23524,11 +23397,11 @@
         <v>1397</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>IF(G119=H119,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J119" s="4" t="str">
-        <f>IF(C119&lt;10,(B119&amp;".0"&amp;C119),(B119&amp;"."&amp;C119))</f>
+        <f t="shared" si="9"/>
         <v>1.09</v>
       </c>
       <c r="K119" s="3" t="s">
@@ -23539,7 +23412,7 @@
         <v>1895</v>
       </c>
       <c r="N119" s="3" t="str">
-        <f>M119&amp;" ("&amp;AU119&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O119" s="5" t="s">
@@ -23626,11 +23499,11 @@
         <v>1398</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f>IF(G120=H120,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J120" s="4" t="str">
-        <f>IF(C120&lt;10,(B120&amp;".0"&amp;C120),(B120&amp;"."&amp;C120))</f>
+        <f t="shared" si="9"/>
         <v>1.10</v>
       </c>
       <c r="K120" s="3" t="s">
@@ -23641,7 +23514,7 @@
         <v>1876</v>
       </c>
       <c r="N120" s="3" t="str">
-        <f>M120&amp;" ("&amp;AU120&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally ≥ 20 (Tobler et al., 2008; Wearn et al., 2013)</v>
       </c>
       <c r="O120" s="5" t="s">
@@ -23726,11 +23599,11 @@
         <v>1403</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>IF(G121=H121,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J121" s="4" t="str">
-        <f>IF(C121&lt;10,(B121&amp;".0"&amp;C121),(B121&amp;"."&amp;C121))</f>
+        <f t="shared" si="9"/>
         <v>1.11</v>
       </c>
       <c r="K121" s="3" t="s">
@@ -23741,7 +23614,7 @@
         <v>1896</v>
       </c>
       <c r="N121" s="3" t="str">
-        <f>M121&amp;" ("&amp;AU121&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Tobler et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O121" s="5" t="s">
@@ -23828,11 +23701,11 @@
         <v>1687</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>IF(G122=H122,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J122" s="4" t="str">
-        <f>B122&amp;"."&amp;C122</f>
+        <f t="shared" ref="J122:J131" si="10">B122&amp;"."&amp;C122</f>
         <v>17.1</v>
       </c>
       <c r="K122" s="3" t="s">
@@ -23843,7 +23716,7 @@
         <v>153</v>
       </c>
       <c r="N122" s="3" t="str">
-        <f>M122&amp;" ("&amp;AU122&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="O122" s="3" t="s">
@@ -23930,11 +23803,11 @@
         <v>1688</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>IF(G123=H123,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J123" s="4" t="str">
-        <f>B123&amp;"."&amp;C123</f>
+        <f t="shared" si="10"/>
         <v>17.2</v>
       </c>
       <c r="K123" s="3" t="s">
@@ -23945,7 +23818,7 @@
         <v>95</v>
       </c>
       <c r="N123" s="3" t="str">
-        <f>M123&amp;" ("&amp;AU123&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="O123" s="3" t="s">
@@ -24030,11 +23903,11 @@
         <v>1689</v>
       </c>
       <c r="I124" s="3" t="str">
-        <f>IF(G124=H124,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J124" s="4" t="str">
-        <f>B124&amp;"."&amp;C124</f>
+        <f t="shared" si="10"/>
         <v>17.3</v>
       </c>
       <c r="K124" s="3" t="s">
@@ -24045,7 +23918,7 @@
         <v>67</v>
       </c>
       <c r="N124" s="3" t="str">
-        <f>M124&amp;" ("&amp;AU124&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="O124" s="3" t="s">
@@ -24130,11 +24003,11 @@
         <v>1695</v>
       </c>
       <c r="I125" s="3" t="str">
-        <f>IF(G125=H125,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J125" s="4" t="str">
-        <f>B125&amp;"."&amp;C125</f>
+        <f t="shared" si="10"/>
         <v>17.4</v>
       </c>
       <c r="K125" s="3" t="s">
@@ -24145,7 +24018,7 @@
         <v>637</v>
       </c>
       <c r="N125" s="3" t="str">
-        <f>M125&amp;" ("&amp;AU125&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="O125" s="7" t="s">
@@ -24230,11 +24103,11 @@
         <v>1690</v>
       </c>
       <c r="I126" s="3" t="str">
-        <f>IF(G126=H126,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J126" s="4" t="str">
-        <f>B126&amp;"."&amp;C126</f>
+        <f t="shared" si="10"/>
         <v>17.5</v>
       </c>
       <c r="K126" s="3" t="s">
@@ -24245,7 +24118,7 @@
         <v>1842</v>
       </c>
       <c r="N126" s="3" t="str">
-        <f>M126&amp;" ("&amp;AU126&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>No requirements (uses instantaneous snapshots) (Moeller et al., 2018)</v>
       </c>
       <c r="O126" s="3" t="s">
@@ -24330,11 +24203,11 @@
         <v>1694</v>
       </c>
       <c r="I127" s="3" t="str">
-        <f>IF(G127=H127,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>false</v>
       </c>
       <c r="J127" s="4" t="str">
-        <f>B127&amp;"."&amp;C127</f>
+        <f t="shared" si="10"/>
         <v>17.6</v>
       </c>
       <c r="K127" s="3" t="s">
@@ -24345,7 +24218,7 @@
         <v>1895</v>
       </c>
       <c r="N127" s="3" t="str">
-        <f>M127&amp;" ("&amp;AU127&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="O127" s="3" t="s">
@@ -24432,11 +24305,11 @@
         <v>1693</v>
       </c>
       <c r="I128" s="3" t="str">
-        <f>IF(G128=H128,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>TRUE</v>
       </c>
       <c r="J128" s="4" t="str">
-        <f>B128&amp;"."&amp;C128</f>
+        <f t="shared" si="10"/>
         <v>17.9</v>
       </c>
       <c r="K128" s="3" t="s">
@@ -24447,7 +24320,7 @@
         <v>1840</v>
       </c>
       <c r="N128" s="3" t="str">
-        <f>M128&amp;" ("&amp;AU128&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="O128" s="5" t="s">
@@ -24534,11 +24407,11 @@
         <v>1691</v>
       </c>
       <c r="I129" s="3" t="str">
-        <f>IF(G129=H129,"false","TRUE")</f>
+        <f t="shared" si="5"/>
         <v>TRUE</v>
       </c>
       <c r="J129" s="4" t="str">
-        <f>B129&amp;"."&amp;C129</f>
+        <f t="shared" si="10"/>
         <v>17.7</v>
       </c>
       <c r="K129" s="3" t="s">
@@ -24549,7 +24422,7 @@
         <v>1894</v>
       </c>
       <c r="N129" s="3" t="str">
-        <f>M129&amp;" ("&amp;AU129&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="O129" s="5" t="s">
@@ -24638,11 +24511,11 @@
         <v>1692</v>
       </c>
       <c r="I130" s="3" t="str">
-        <f>IF(G130=H130,"false","TRUE")</f>
+        <f t="shared" ref="I130:I193" si="11">IF(G130=H130,"false","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="J130" s="4" t="str">
-        <f>B130&amp;"."&amp;C130</f>
+        <f t="shared" si="10"/>
         <v>17.8</v>
       </c>
       <c r="K130" s="3" t="s">
@@ -24653,7 +24526,7 @@
         <v>279</v>
       </c>
       <c r="N130" s="3" t="str">
-        <f>M130&amp;" ("&amp;AU130&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="O130" s="5" t="s">
@@ -24738,11 +24611,11 @@
         <v>1696</v>
       </c>
       <c r="I131" s="3" t="str">
-        <f>IF(G131=H131,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J131" s="4" t="str">
-        <f>B131&amp;"."&amp;C131</f>
+        <f t="shared" si="10"/>
         <v>17.10</v>
       </c>
       <c r="K131" s="3" t="s">
@@ -24753,7 +24626,7 @@
         <v>1843</v>
       </c>
       <c r="N131" s="3" t="str">
-        <f>M131&amp;" ("&amp;AU131&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="O131" s="5" t="s">
@@ -24838,11 +24711,11 @@
         <v>1422</v>
       </c>
       <c r="I132" s="3" t="str">
-        <f>IF(G132=H132,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J132" s="4" t="str">
-        <f>IF(C132&lt;10,(B132&amp;".0"&amp;C132),(B132&amp;"."&amp;C132))</f>
+        <f t="shared" ref="J132:J171" si="12">IF(C132&lt;10,(B132&amp;".0"&amp;C132),(B132&amp;"."&amp;C132))</f>
         <v>3.01</v>
       </c>
       <c r="K132" s="3" t="s">
@@ -24853,7 +24726,7 @@
         <v>140</v>
       </c>
       <c r="N132" s="3" t="str">
-        <f>M132&amp;" ("&amp;AU132&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Ideally random (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; O'Connell &amp; Bailey, 2011; Shannon et al., 2014)</v>
       </c>
       <c r="O132" s="3" t="s">
@@ -24938,11 +24811,11 @@
         <v>1423</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>IF(G133=H133,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J133" s="4" t="str">
-        <f>IF(C133&lt;10,(B133&amp;".0"&amp;C133),(B133&amp;"."&amp;C133))</f>
+        <f t="shared" si="12"/>
         <v>3.02</v>
       </c>
       <c r="K133" s="3" t="s">
@@ -24953,7 +24826,7 @@
         <v>39</v>
       </c>
       <c r="N133" s="3" t="str">
-        <f>M133&amp;" ("&amp;AU133&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Targeted (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="O133" s="3" t="s">
@@ -25038,11 +24911,11 @@
         <v>1424</v>
       </c>
       <c r="I134" s="3" t="str">
-        <f>IF(G134=H134,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J134" s="4" t="str">
-        <f>IF(C134&lt;10,(B134&amp;".0"&amp;C134),(B134&amp;"."&amp;C134))</f>
+        <f t="shared" si="12"/>
         <v>3.03</v>
       </c>
       <c r="K134" s="3" t="s">
@@ -25053,7 +24926,7 @@
         <v>250</v>
       </c>
       <c r="N134" s="3" t="str">
-        <f>M134&amp;" ("&amp;AU134&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Clustered (O'Connell &amp; Bailey, 2011; Pacifici et al., 2015)</v>
       </c>
       <c r="O134" s="3" t="s">
@@ -25138,11 +25011,11 @@
         <v>1425</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f>IF(G135=H135,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J135" s="4" t="str">
-        <f>IF(C135&lt;10,(B135&amp;".0"&amp;C135),(B135&amp;"."&amp;C135))</f>
+        <f t="shared" si="12"/>
         <v>3.04</v>
       </c>
       <c r="K135" s="3" t="s">
@@ -25153,7 +25026,7 @@
         <v>120</v>
       </c>
       <c r="N135" s="3" t="str">
-        <f>M135&amp;" ("&amp;AU135&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O135" s="3" t="s">
@@ -25238,11 +25111,11 @@
         <v>1437</v>
       </c>
       <c r="I136" s="3" t="str">
-        <f>IF(G136=H136,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J136" s="4" t="str">
-        <f>IF(C136&lt;10,(B136&amp;".0"&amp;C136),(B136&amp;"."&amp;C136))</f>
+        <f t="shared" si="12"/>
         <v>3.05</v>
       </c>
       <c r="K136" s="3" t="s">
@@ -25253,7 +25126,7 @@
         <v>276</v>
       </c>
       <c r="N136" s="3" t="str">
-        <f>M136&amp;" ("&amp;AU136&amp;")"</f>
+        <f t="shared" ref="N136:N199" si="13">M136&amp;" ("&amp;AU136&amp;")"</f>
         <v>Species-dependent (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O136" s="7" t="s">
@@ -25340,11 +25213,11 @@
         <v>1438</v>
       </c>
       <c r="I137" s="3" t="str">
-        <f>IF(G137=H137,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J137" s="4" t="str">
-        <f>IF(C137&lt;10,(B137&amp;".0"&amp;C137),(B137&amp;"."&amp;C137))</f>
+        <f t="shared" si="12"/>
         <v>3.06</v>
       </c>
       <c r="K137" s="3" t="s">
@@ -25355,7 +25228,7 @@
         <v>1743</v>
       </c>
       <c r="N137" s="3" t="str">
-        <f>M137&amp;" ("&amp;AU137&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O137" s="7" t="s">
@@ -25438,11 +25311,11 @@
         <v>1439</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f>IF(G138=H138,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J138" s="4" t="str">
-        <f>IF(C138&lt;10,(B138&amp;".0"&amp;C138),(B138&amp;"."&amp;C138))</f>
+        <f t="shared" si="12"/>
         <v>3.07</v>
       </c>
       <c r="K138" s="3" t="s">
@@ -25453,7 +25326,7 @@
         <v>1744</v>
       </c>
       <c r="N138" s="3" t="str">
-        <f>M138&amp;" ("&amp;AU138&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 1000 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="O138" s="7" t="s">
@@ -25536,11 +25409,11 @@
         <v>1440</v>
       </c>
       <c r="I139" s="3" t="str">
-        <f>IF(G139=H139,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J139" s="4" t="str">
-        <f>IF(C139&lt;10,(B139&amp;".0"&amp;C139),(B139&amp;"."&amp;C139))</f>
+        <f t="shared" si="12"/>
         <v>3.08</v>
       </c>
       <c r="K139" s="3" t="s">
@@ -25551,7 +25424,7 @@
         <v>1820</v>
       </c>
       <c r="N139" s="3" t="str">
-        <f>M139&amp;" ("&amp;AU139&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 5000 (Shannon et al., 2014)</v>
       </c>
       <c r="O139" s="7" t="s">
@@ -25638,11 +25511,11 @@
         <v>1426</v>
       </c>
       <c r="I140" s="3" t="str">
-        <f>IF(G140=H140,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J140" s="4" t="str">
-        <f>IF(C140&lt;10,(B140&amp;".0"&amp;C140),(B140&amp;"."&amp;C140))</f>
+        <f t="shared" si="12"/>
         <v>3.09</v>
       </c>
       <c r="K140" s="3" t="s">
@@ -25653,7 +25526,7 @@
         <v>271</v>
       </c>
       <c r="N140" s="3" t="str">
-        <f>M140&amp;" ("&amp;AU140&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O140" s="3" t="s">
@@ -25740,11 +25613,11 @@
         <v>1427</v>
       </c>
       <c r="I141" s="3" t="str">
-        <f>IF(G141=H141,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J141" s="4" t="str">
-        <f>IF(C141&lt;10,(B141&amp;".0"&amp;C141),(B141&amp;"."&amp;C141))</f>
+        <f t="shared" si="12"/>
         <v>3.10</v>
       </c>
       <c r="K141" s="3" t="s">
@@ -25755,7 +25628,7 @@
         <v>1817</v>
       </c>
       <c r="N141" s="3" t="str">
-        <f>M141&amp;" ("&amp;AU141&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>≥ 1 km is typical (Wearn &amp; Glover-Kapfer, 2017; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O141" s="3" t="s">
@@ -25842,11 +25715,11 @@
         <v>1435</v>
       </c>
       <c r="I142" s="3" t="str">
-        <f>IF(G142=H142,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J142" s="4" t="str">
-        <f>IF(C142&lt;10,(B142&amp;".0"&amp;C142),(B142&amp;"."&amp;C142))</f>
+        <f t="shared" si="12"/>
         <v>3.11</v>
       </c>
       <c r="K142" s="3" t="s">
@@ -25857,7 +25730,7 @@
         <v>1739</v>
       </c>
       <c r="N142" s="3" t="str">
-        <f>M142&amp;" ("&amp;AU142&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>≥ 30 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; Shannon et al., 2014)</v>
       </c>
       <c r="O142" s="3" t="s">
@@ -25942,11 +25815,11 @@
         <v>1436</v>
       </c>
       <c r="I143" s="3" t="str">
-        <f>IF(G143=H143,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J143" s="4" t="str">
-        <f>IF(C143&lt;10,(B143&amp;".0"&amp;C143),(B143&amp;"."&amp;C143))</f>
+        <f t="shared" si="12"/>
         <v>3.12</v>
       </c>
       <c r="K143" s="3" t="s">
@@ -25957,7 +25830,7 @@
         <v>1815</v>
       </c>
       <c r="N143" s="3" t="str">
-        <f>M143&amp;" ("&amp;AU143&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>80-100 (Shannon et al., 2014)</v>
       </c>
       <c r="O143" s="3" t="s">
@@ -26042,11 +25915,11 @@
         <v>1428</v>
       </c>
       <c r="I144" s="3" t="str">
-        <f>IF(G144=H144,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J144" s="4" t="str">
-        <f>IF(C144&lt;10,(B144&amp;".0"&amp;C144),(B144&amp;"."&amp;C144))</f>
+        <f t="shared" si="12"/>
         <v>3.13</v>
       </c>
       <c r="K144" s="3" t="s">
@@ -26057,7 +25930,7 @@
         <v>1908</v>
       </c>
       <c r="N144" s="3" t="str">
-        <f>M144&amp;" ("&amp;AU144&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;&gt; 40 (minumum)&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O144" s="5" t="s">
@@ -26146,11 +26019,11 @@
         <v>1429</v>
       </c>
       <c r="I145" s="3" t="str">
-        <f>IF(G145=H145,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J145" s="4" t="str">
-        <f>IF(C145&lt;10,(B145&amp;".0"&amp;C145),(B145&amp;"."&amp;C145))</f>
+        <f t="shared" si="12"/>
         <v>3.14</v>
       </c>
       <c r="K145" s="3" t="s">
@@ -26161,7 +26034,7 @@
         <v>1813</v>
       </c>
       <c r="N145" s="3" t="str">
-        <f>M145&amp;" ("&amp;AU145&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 100 (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; Shannon et al., 2014)</v>
       </c>
       <c r="O145" s="5" t="s">
@@ -26246,11 +26119,11 @@
         <v>1430</v>
       </c>
       <c r="I146" s="3" t="str">
-        <f>IF(G146=H146,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J146" s="4" t="str">
-        <f>IF(C146&lt;10,(B146&amp;".0"&amp;C146),(B146&amp;"."&amp;C146))</f>
+        <f t="shared" si="12"/>
         <v>3.15</v>
       </c>
       <c r="K146" s="3" t="s">
@@ -26261,7 +26134,7 @@
         <v>275</v>
       </c>
       <c r="N146" s="3" t="str">
-        <f>M146&amp;" ("&amp;AU146&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 60; species-dependent (Rovero et al., 2013)</v>
       </c>
       <c r="O146" s="5" t="s">
@@ -26348,11 +26221,11 @@
         <v>1431</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>IF(G147=H147,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J147" s="4" t="str">
-        <f>IF(C147&lt;10,(B147&amp;".0"&amp;C147),(B147&amp;"."&amp;C147))</f>
+        <f t="shared" si="12"/>
         <v>3.16</v>
       </c>
       <c r="K147" s="3" t="s">
@@ -26363,7 +26236,7 @@
         <v>1811</v>
       </c>
       <c r="N147" s="3" t="str">
-        <f>M147&amp;" ("&amp;AU147&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt; 20 (Kays et al., 2020)</v>
       </c>
       <c r="O147" s="5" t="s">
@@ -26448,11 +26321,11 @@
         <v>1432</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f>IF(G148=H148,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J148" s="4" t="str">
-        <f>IF(C148&lt;10,(B148&amp;".0"&amp;C148),(B148&amp;"."&amp;C148))</f>
+        <f t="shared" si="12"/>
         <v>3.17</v>
       </c>
       <c r="K148" s="3" t="s">
@@ -26463,7 +26336,7 @@
         <v>1810</v>
       </c>
       <c r="N148" s="3" t="str">
-        <f>M148&amp;" ("&amp;AU148&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>≤ 30 (Shannon et al., 2014)</v>
       </c>
       <c r="O148" s="5" t="s">
@@ -26548,11 +26421,11 @@
         <v>1433</v>
       </c>
       <c r="I149" s="3" t="str">
-        <f>IF(G149=H149,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J149" s="4" t="str">
-        <f>IF(C149&lt;10,(B149&amp;".0"&amp;C149),(B149&amp;"."&amp;C149))</f>
+        <f t="shared" si="12"/>
         <v>3.18</v>
       </c>
       <c r="K149" s="3" t="s">
@@ -26563,7 +26436,7 @@
         <v>1808</v>
       </c>
       <c r="N149" s="3" t="str">
-        <f>M149&amp;" ("&amp;AU149&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 150 (Kays et al., 2020)</v>
       </c>
       <c r="O149" s="5" t="s">
@@ -26648,11 +26521,11 @@
         <v>1434</v>
       </c>
       <c r="I150" s="3" t="str">
-        <f>IF(G150=H150,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J150" s="4" t="str">
-        <f>IF(C150&lt;10,(B150&amp;".0"&amp;C150),(B150&amp;"."&amp;C150))</f>
+        <f t="shared" si="12"/>
         <v>3.19</v>
       </c>
       <c r="K150" s="3" t="s">
@@ -26663,7 +26536,7 @@
         <v>1806</v>
       </c>
       <c r="N150" s="3" t="str">
-        <f>M150&amp;" ("&amp;AU150&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>30-60 (Shannon et al., 2014)</v>
       </c>
       <c r="O150" s="5" t="s">
@@ -26748,11 +26621,11 @@
         <v>1441</v>
       </c>
       <c r="I151" s="3" t="str">
-        <f>IF(G151=H151,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J151" s="4" t="str">
-        <f>IF(C151&lt;10,(B151&amp;".0"&amp;C151),(B151&amp;"."&amp;C151))</f>
+        <f t="shared" si="12"/>
         <v>3.20</v>
       </c>
       <c r="K151" s="3" t="s">
@@ -26763,7 +26636,7 @@
         <v>276</v>
       </c>
       <c r="N151" s="3" t="str">
-        <f>M151&amp;" ("&amp;AU151&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Species-dependent (Guillera-Arroita et al., 2010)</v>
       </c>
       <c r="O151" s="5" t="s">
@@ -26850,11 +26723,11 @@
         <v>1442</v>
       </c>
       <c r="I152" s="3" t="str">
-        <f>IF(G152=H152,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J152" s="4" t="str">
-        <f>IF(C152&lt;10,(B152&amp;".0"&amp;C152),(B152&amp;"."&amp;C152))</f>
+        <f t="shared" si="12"/>
         <v>3.21</v>
       </c>
       <c r="K152" s="3" t="s">
@@ -26865,7 +26738,7 @@
         <v>566</v>
       </c>
       <c r="N152" s="3" t="str">
-        <f>M152&amp;" ("&amp;AU152&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &lt; 6 months (Mackenzie &amp; Royle, 2005; Guillera-Arroita et al., 2010; O'Brien, 2010; Shannon et al., 2014)</v>
       </c>
       <c r="O152" s="5" t="s">
@@ -26950,11 +26823,11 @@
         <v>1443</v>
       </c>
       <c r="I153" s="3" t="str">
-        <f>IF(G153=H153,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J153" s="4" t="str">
-        <f>IF(C153&lt;10,(B153&amp;".0"&amp;C153),(B153&amp;"."&amp;C153))</f>
+        <f t="shared" si="12"/>
         <v>4.01</v>
       </c>
       <c r="K153" s="3" t="s">
@@ -26965,7 +26838,7 @@
         <v>140</v>
       </c>
       <c r="N153" s="3" t="str">
-        <f>M153&amp;" ("&amp;AU153&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O153" s="3" t="s">
@@ -27050,11 +26923,11 @@
         <v>1444</v>
       </c>
       <c r="I154" s="3" t="str">
-        <f>IF(G154=H154,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J154" s="4" t="str">
-        <f>IF(C154&lt;10,(B154&amp;".0"&amp;C154),(B154&amp;"."&amp;C154))</f>
+        <f t="shared" si="12"/>
         <v>4.02</v>
       </c>
       <c r="K154" s="3" t="s">
@@ -27065,7 +26938,7 @@
         <v>67</v>
       </c>
       <c r="N154" s="3" t="str">
-        <f>M154&amp;" ("&amp;AU154&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O154" s="3" t="s">
@@ -27150,11 +27023,11 @@
         <v>1455</v>
       </c>
       <c r="I155" s="3" t="str">
-        <f>IF(G155=H155,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J155" s="4" t="str">
-        <f>IF(C155&lt;10,(B155&amp;".0"&amp;C155),(B155&amp;"."&amp;C155))</f>
+        <f t="shared" si="12"/>
         <v>4.03</v>
       </c>
       <c r="K155" s="3" t="s">
@@ -27165,7 +27038,7 @@
         <v>309</v>
       </c>
       <c r="N155" s="3" t="str">
-        <f>M155&amp;" ("&amp;AU155&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 2000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O155" s="7" t="s">
@@ -27250,11 +27123,11 @@
         <v>1456</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f>IF(G156=H156,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J156" s="4" t="str">
-        <f>IF(C156&lt;10,(B156&amp;".0"&amp;C156),(B156&amp;"."&amp;C156))</f>
+        <f t="shared" si="12"/>
         <v>4.04</v>
       </c>
       <c r="K156" s="3" t="s">
@@ -27265,7 +27138,7 @@
         <v>1802</v>
       </c>
       <c r="N156" s="3" t="str">
-        <f>M156&amp;" ("&amp;AU156&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Enough for &gt; 10 detections (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O156" s="7" t="s">
@@ -27354,11 +27227,11 @@
         <v>1457</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f>IF(G157=H157,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J157" s="4" t="str">
-        <f>IF(C157&lt;10,(B157&amp;".0"&amp;C157),(B157&amp;"."&amp;C157))</f>
+        <f t="shared" si="12"/>
         <v>4.05</v>
       </c>
       <c r="K157" s="3" t="s">
@@ -27369,7 +27242,7 @@
         <v>626</v>
       </c>
       <c r="N157" s="3" t="str">
-        <f>M157&amp;" ("&amp;AU157&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 20 detections (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O157" s="7" t="s">
@@ -27458,11 +27331,11 @@
         <v>1458</v>
       </c>
       <c r="I158" s="3" t="str">
-        <f>IF(G158=H158,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J158" s="4" t="str">
-        <f>IF(C158&lt;10,(B158&amp;".0"&amp;C158),(B158&amp;"."&amp;C158))</f>
+        <f t="shared" si="12"/>
         <v>4.06</v>
       </c>
       <c r="K158" s="3" t="s">
@@ -27473,7 +27346,7 @@
         <v>1799</v>
       </c>
       <c r="N158" s="3" t="str">
-        <f>M158&amp;" ("&amp;AU158&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 2000 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O158" s="7" t="s">
@@ -27564,11 +27437,11 @@
         <v>1459</v>
       </c>
       <c r="I159" s="3" t="str">
-        <f>IF(G159=H159,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J159" s="4" t="str">
-        <f>IF(C159&lt;10,(B159&amp;".0"&amp;C159),(B159&amp;"."&amp;C159))</f>
+        <f t="shared" si="12"/>
         <v>4.07</v>
       </c>
       <c r="K159" s="3" t="s">
@@ -27579,7 +27452,7 @@
         <v>1797</v>
       </c>
       <c r="N159" s="3" t="str">
-        <f>M159&amp;" ("&amp;AU159&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 250 (Rowcliffe et al., 2008; Rovero &amp; Marshall, 2009; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O159" s="7" t="s">
@@ -27664,11 +27537,11 @@
         <v>1460</v>
       </c>
       <c r="I160" s="3" t="str">
-        <f>IF(G160=H160,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J160" s="4" t="str">
-        <f>IF(C160&lt;10,(B160&amp;".0"&amp;C160),(B160&amp;"."&amp;C160))</f>
+        <f t="shared" si="12"/>
         <v>4.08</v>
       </c>
       <c r="K160" s="3" t="s">
@@ -27679,7 +27552,7 @@
         <v>1794</v>
       </c>
       <c r="N160" s="3" t="str">
-        <f>M160&amp;" ("&amp;AU160&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 20,000 (O'Brien, 2010; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O160" s="7" t="s">
@@ -27764,11 +27637,11 @@
         <v>1445</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>IF(G161=H161,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J161" s="4" t="str">
-        <f>IF(C161&lt;10,(B161&amp;".0"&amp;C161),(B161&amp;"."&amp;C161))</f>
+        <f t="shared" si="12"/>
         <v>4.09</v>
       </c>
       <c r="K161" s="3" t="s">
@@ -27779,7 +27652,7 @@
         <v>1895</v>
       </c>
       <c r="N161" s="3" t="str">
-        <f>M161&amp;" ("&amp;AU161&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O161" s="3" t="s">
@@ -27866,11 +27739,11 @@
         <v>1446</v>
       </c>
       <c r="I162" s="3" t="str">
-        <f>IF(G162=H162,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J162" s="4" t="str">
-        <f>IF(C162&lt;10,(B162&amp;".0"&amp;C162),(B162&amp;"."&amp;C162))</f>
+        <f t="shared" si="12"/>
         <v>4.10</v>
       </c>
       <c r="K162" s="3" t="s">
@@ -27881,7 +27754,7 @@
         <v>1792</v>
       </c>
       <c r="N162" s="3" t="str">
-        <f>M162&amp;" ("&amp;AU162&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 1 km (Wearn et al., 2013)</v>
       </c>
       <c r="O162" s="3" t="s">
@@ -27966,11 +27839,11 @@
         <v>1447</v>
       </c>
       <c r="I163" s="3" t="str">
-        <f>IF(G163=H163,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J163" s="4" t="str">
-        <f>IF(C163&lt;10,(B163&amp;".0"&amp;C163),(B163&amp;"."&amp;C163))</f>
+        <f t="shared" si="12"/>
         <v>4.11</v>
       </c>
       <c r="K163" s="3" t="s">
@@ -27981,7 +27854,7 @@
         <v>499</v>
       </c>
       <c r="N163" s="3" t="str">
-        <f>M163&amp;" ("&amp;AU163&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally 1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O163" s="3" t="s">
@@ -28066,11 +27939,11 @@
         <v>1452</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f>IF(G164=H164,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J164" s="4" t="str">
-        <f>IF(C164&lt;10,(B164&amp;".0"&amp;C164),(B164&amp;"."&amp;C164))</f>
+        <f t="shared" si="12"/>
         <v>4.12</v>
       </c>
       <c r="K164" s="3" t="s">
@@ -28081,7 +27954,7 @@
         <v>1895</v>
       </c>
       <c r="N164" s="3" t="str">
-        <f>M164&amp;" ("&amp;AU164&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O164" s="3" t="s">
@@ -28168,11 +28041,11 @@
         <v>1453</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f>IF(G165=H165,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J165" s="4" t="str">
-        <f>IF(C165&lt;10,(B165&amp;".0"&amp;C165),(B165&amp;"."&amp;C165))</f>
+        <f t="shared" si="12"/>
         <v>4.13</v>
       </c>
       <c r="K165" s="3" t="s">
@@ -28183,7 +28056,7 @@
         <v>1791</v>
       </c>
       <c r="N165" s="3" t="str">
-        <f>M165&amp;" ("&amp;AU165&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O165" s="3" t="s">
@@ -28268,11 +28141,11 @@
         <v>1454</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f>IF(G166=H166,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J166" s="4" t="str">
-        <f>IF(C166&lt;10,(B166&amp;".0"&amp;C166),(B166&amp;"."&amp;C166))</f>
+        <f t="shared" si="12"/>
         <v>4.14</v>
       </c>
       <c r="K166" s="3" t="s">
@@ -28283,7 +28156,7 @@
         <v>368</v>
       </c>
       <c r="N166" s="3" t="str">
-        <f>M166&amp;" ("&amp;AU166&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>As many as possible (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O166" s="3" t="s">
@@ -28368,11 +28241,11 @@
         <v>1448</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f>IF(G167=H167,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J167" s="4" t="str">
-        <f>IF(C167&lt;10,(B167&amp;".0"&amp;C167),(B167&amp;"."&amp;C167))</f>
+        <f t="shared" si="12"/>
         <v>4.15</v>
       </c>
       <c r="K167" s="3" t="s">
@@ -28383,7 +28256,7 @@
         <v>368</v>
       </c>
       <c r="N167" s="3" t="str">
-        <f>M167&amp;" ("&amp;AU167&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>As many as possible (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O167" s="5" t="s">
@@ -28468,11 +28341,11 @@
         <v>1449</v>
       </c>
       <c r="I168" s="3" t="str">
-        <f>IF(G168=H168,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J168" s="4" t="str">
-        <f>IF(C168&lt;10,(B168&amp;".0"&amp;C168),(B168&amp;"."&amp;C168))</f>
+        <f t="shared" si="12"/>
         <v>4.16</v>
       </c>
       <c r="K168" s="3" t="s">
@@ -28483,7 +28356,7 @@
         <v>1894</v>
       </c>
       <c r="N168" s="3" t="str">
-        <f>M168&amp;" ("&amp;AU168&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O168" s="5" t="s">
@@ -28572,11 +28445,11 @@
         <v>1450</v>
       </c>
       <c r="I169" s="3" t="str">
-        <f>IF(G169=H169,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J169" s="4" t="str">
-        <f>IF(C169&lt;10,(B169&amp;".0"&amp;C169),(B169&amp;"."&amp;C169))</f>
+        <f t="shared" si="12"/>
         <v>4.17</v>
       </c>
       <c r="K169" s="3" t="s">
@@ -28587,7 +28460,7 @@
         <v>1790</v>
       </c>
       <c r="N169" s="3" t="str">
-        <f>M169&amp;" ("&amp;AU169&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 50 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O169" s="5" t="s">
@@ -28672,11 +28545,11 @@
         <v>1461</v>
       </c>
       <c r="I170" s="3" t="str">
-        <f>IF(G170=H170,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J170" s="4" t="str">
-        <f>IF(C170&lt;10,(B170&amp;".0"&amp;C170),(B170&amp;"."&amp;C170))</f>
+        <f t="shared" si="12"/>
         <v>4.19</v>
       </c>
       <c r="K170" s="3" t="s">
@@ -28687,7 +28560,7 @@
         <v>1896</v>
       </c>
       <c r="N170" s="3" t="str">
-        <f>M170&amp;" ("&amp;AU170&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Wearn et al., 2013)</v>
       </c>
       <c r="O170" s="5" t="s">
@@ -28774,11 +28647,11 @@
         <v>1462</v>
       </c>
       <c r="I171" s="3" t="str">
-        <f>IF(G171=H171,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J171" s="4" t="str">
-        <f>IF(C171&lt;10,(B171&amp;".0"&amp;C171),(B171&amp;"."&amp;C171))</f>
+        <f t="shared" si="12"/>
         <v>4.20</v>
       </c>
       <c r="K171" s="3" t="s">
@@ -28789,7 +28662,7 @@
         <v>584</v>
       </c>
       <c r="N171" s="3" t="str">
-        <f>M171&amp;" ("&amp;AU171&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &lt; 12 months (Wearn et al., 2013)</v>
       </c>
       <c r="O171" s="5" t="s">
@@ -28874,11 +28747,11 @@
         <v>1584</v>
       </c>
       <c r="I172" s="3" t="str">
-        <f>IF(G172=H172,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J172" s="4" t="str">
-        <f>B172&amp;"."&amp;C172</f>
+        <f t="shared" ref="J172:J203" si="14">B172&amp;"."&amp;C172</f>
         <v>11.1</v>
       </c>
       <c r="K172" s="3" t="s">
@@ -28889,7 +28762,7 @@
         <v>153</v>
       </c>
       <c r="N172" s="3" t="str">
-        <f>M172&amp;" ("&amp;AU172&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Random with respect to movement ([*viii] Rovero et al., 2013; Rowcliffe et al., 2013; Wearn &amp; Glover-Kapfer, 2017; Loonam et al., 2021)</v>
       </c>
       <c r="O172" s="3" t="s">
@@ -28976,11 +28849,11 @@
         <v>1585</v>
       </c>
       <c r="I173" s="3" t="str">
-        <f>IF(G173=H173,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J173" s="4" t="str">
-        <f>B173&amp;"."&amp;C173</f>
+        <f t="shared" si="14"/>
         <v>11.2</v>
       </c>
       <c r="K173" s="3" t="s">
@@ -28991,7 +28864,7 @@
         <v>95</v>
       </c>
       <c r="N173" s="3" t="str">
-        <f>M173&amp;" ("&amp;AU173&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="O173" s="3" t="s">
@@ -29078,11 +28951,11 @@
         <v>1586</v>
       </c>
       <c r="I174" s="3" t="str">
-        <f>IF(G174=H174,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J174" s="4" t="str">
-        <f>B174&amp;"."&amp;C174</f>
+        <f t="shared" si="14"/>
         <v>11.3</v>
       </c>
       <c r="K174" s="3" t="s">
@@ -29093,7 +28966,7 @@
         <v>67</v>
       </c>
       <c r="N174" s="3" t="str">
-        <f>M174&amp;" ("&amp;AU174&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic random ([*ix] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O174" s="3" t="s">
@@ -29180,11 +29053,11 @@
         <v>1587</v>
       </c>
       <c r="I175" s="3" t="str">
-        <f>IF(G175=H175,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J175" s="4" t="str">
-        <f>B175&amp;"."&amp;C175</f>
+        <f t="shared" si="14"/>
         <v>11.4</v>
       </c>
       <c r="K175" s="3" t="s">
@@ -29195,7 +29068,7 @@
         <v>120</v>
       </c>
       <c r="N175" s="3" t="str">
-        <f>M175&amp;" ("&amp;AU175&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Stratified random (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O175" s="3" t="s">
@@ -29282,11 +29155,11 @@
         <v>1588</v>
       </c>
       <c r="I176" s="3" t="str">
-        <f>IF(G176=H176,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J176" s="4" t="str">
-        <f>B176&amp;"."&amp;C176</f>
+        <f t="shared" si="14"/>
         <v>11.5</v>
       </c>
       <c r="K176" s="3" t="s">
@@ -29297,7 +29170,7 @@
         <v>113</v>
       </c>
       <c r="N176" s="3" t="str">
-        <f>M176&amp;" ("&amp;AU176&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Stratified targeted ([*x] Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O176" s="3" t="s">
@@ -29384,11 +29257,11 @@
         <v>1601</v>
       </c>
       <c r="I177" s="3" t="str">
-        <f>IF(G177=H177,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J177" s="4" t="str">
-        <f>B177&amp;"."&amp;C177</f>
+        <f t="shared" si="14"/>
         <v>11.6</v>
       </c>
       <c r="K177" s="3" t="s">
@@ -29399,7 +29272,7 @@
         <v>1898</v>
       </c>
       <c r="N177" s="3" t="str">
-        <f>M177&amp;" ("&amp;AU177&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O177" s="7" t="s">
@@ -29490,11 +29363,11 @@
         <v>1602</v>
       </c>
       <c r="I178" s="3" t="str">
-        <f>IF(G178=H178,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J178" s="4" t="str">
-        <f>B178&amp;"."&amp;C178</f>
+        <f t="shared" si="14"/>
         <v>11.7</v>
       </c>
       <c r="K178" s="3" t="s">
@@ -29505,7 +29378,7 @@
         <v>626</v>
       </c>
       <c r="N178" s="3" t="str">
-        <f>M178&amp;" ("&amp;AU178&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 20 detections (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O178" s="7" t="s">
@@ -29594,11 +29467,11 @@
         <v>1603</v>
       </c>
       <c r="I179" s="3" t="str">
-        <f>IF(G179=H179,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J179" s="4" t="str">
-        <f>B179&amp;"."&amp;C179</f>
+        <f t="shared" si="14"/>
         <v>11.8</v>
       </c>
       <c r="K179" s="3" t="s">
@@ -29609,7 +29482,7 @@
         <v>1852</v>
       </c>
       <c r="N179" s="3" t="str">
-        <f>M179&amp;" ("&amp;AU179&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Often 2000 (Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O179" s="7" t="s">
@@ -29694,11 +29567,11 @@
         <v>1604</v>
       </c>
       <c r="I180" s="3" t="str">
-        <f>IF(G180=H180,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J180" s="4" t="str">
-        <f>B180&amp;"."&amp;C180</f>
+        <f t="shared" si="14"/>
         <v>11.9</v>
       </c>
       <c r="K180" s="3" t="s">
@@ -29709,7 +29582,7 @@
         <v>1907</v>
       </c>
       <c r="N180" s="3" t="str">
-        <f>M180&amp;" ("&amp;AU180&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>10,00-10,000 (for most, if estimates of activity and speed are to be reasonably precise) (Rowcliffe et al., 2016)</v>
       </c>
       <c r="O180" s="7" t="s">
@@ -29792,11 +29665,11 @@
         <v>1605</v>
       </c>
       <c r="I181" s="3" t="str">
-        <f>IF(G181=H181,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J181" s="4" t="str">
-        <f>B181&amp;"."&amp;C181</f>
+        <f t="shared" si="14"/>
         <v>11.10</v>
       </c>
       <c r="K181" s="3" t="s">
@@ -29807,7 +29680,7 @@
         <v>1799</v>
       </c>
       <c r="N181" s="3" t="str">
-        <f>M181&amp;" ("&amp;AU181&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; 2000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O181" s="7" t="s">
@@ -29896,11 +29769,11 @@
         <v>1589</v>
       </c>
       <c r="I182" s="3" t="str">
-        <f>IF(G182=H182,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J182" s="4" t="str">
-        <f>B182&amp;"."&amp;C182</f>
+        <f t="shared" si="14"/>
         <v>11.11</v>
       </c>
       <c r="K182" s="3" t="s">
@@ -29911,7 +29784,7 @@
         <v>1895</v>
       </c>
       <c r="N182" s="3" t="str">
-        <f>M182&amp;" ("&amp;AU182&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O182" s="3" t="s">
@@ -29998,11 +29871,11 @@
         <v>1590</v>
       </c>
       <c r="I183" s="3" t="str">
-        <f>IF(G183=H183,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J183" s="4" t="str">
-        <f>B183&amp;"."&amp;C183</f>
+        <f t="shared" si="14"/>
         <v>11.12</v>
       </c>
       <c r="K183" s="3" t="s">
@@ -30013,7 +29886,7 @@
         <v>1792</v>
       </c>
       <c r="N183" s="3" t="str">
-        <f>M183&amp;" ("&amp;AU183&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O183" s="3" t="s">
@@ -30098,11 +29971,11 @@
         <v>1591</v>
       </c>
       <c r="I184" s="3" t="str">
-        <f>IF(G184=H184,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J184" s="4" t="str">
-        <f>B184&amp;"."&amp;C184</f>
+        <f t="shared" si="14"/>
         <v>11.13</v>
       </c>
       <c r="K184" s="3" t="s">
@@ -30113,7 +29986,7 @@
         <v>654</v>
       </c>
       <c r="N184" s="3" t="str">
-        <f>M184&amp;" ("&amp;AU184&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="O184" s="3" t="s">
@@ -30200,11 +30073,11 @@
         <v>1592</v>
       </c>
       <c r="I185" s="3" t="str">
-        <f>IF(G185=H185,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J185" s="4" t="str">
-        <f>B185&amp;"."&amp;C185</f>
+        <f t="shared" si="14"/>
         <v>11.14</v>
       </c>
       <c r="K185" s="3" t="s">
@@ -30215,7 +30088,7 @@
         <v>271</v>
       </c>
       <c r="N185" s="3" t="str">
-        <f>M185&amp;" ("&amp;AU185&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O185" s="3" t="s">
@@ -30302,11 +30175,11 @@
         <v>1593</v>
       </c>
       <c r="I186" s="3" t="str">
-        <f>IF(G186=H186,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J186" s="4" t="str">
-        <f>B186&amp;"."&amp;C186</f>
+        <f t="shared" si="14"/>
         <v>11.15</v>
       </c>
       <c r="K186" s="3" t="s">
@@ -30317,7 +30190,7 @@
         <v>1860</v>
       </c>
       <c r="N186" s="3" t="str">
-        <f>M186&amp;" ("&amp;AU186&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O186" s="3" t="s">
@@ -30404,11 +30277,11 @@
         <v>1594</v>
       </c>
       <c r="I187" s="3" t="str">
-        <f>IF(G187=H187,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J187" s="4" t="str">
-        <f>B187&amp;"."&amp;C187</f>
+        <f t="shared" si="14"/>
         <v>11.16</v>
       </c>
       <c r="K187" s="3" t="s">
@@ -30419,7 +30292,7 @@
         <v>1858</v>
       </c>
       <c r="N187" s="3" t="str">
-        <f>M187&amp;" ("&amp;AU187&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O187" s="3" t="s">
@@ -30506,11 +30379,11 @@
         <v>1599</v>
       </c>
       <c r="I188" s="3" t="str">
-        <f>IF(G188=H188,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J188" s="4" t="str">
-        <f>B188&amp;"."&amp;C188</f>
+        <f t="shared" si="14"/>
         <v>11.17</v>
       </c>
       <c r="K188" s="3" t="s">
@@ -30521,7 +30394,7 @@
         <v>1895</v>
       </c>
       <c r="N188" s="3" t="str">
-        <f>M188&amp;" ("&amp;AU188&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O188" s="3" t="s">
@@ -30608,11 +30481,11 @@
         <v>1600</v>
       </c>
       <c r="I189" s="3" t="str">
-        <f>IF(G189=H189,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J189" s="4" t="str">
-        <f>B189&amp;"."&amp;C189</f>
+        <f t="shared" si="14"/>
         <v>11.18</v>
       </c>
       <c r="K189" s="3" t="s">
@@ -30623,7 +30496,7 @@
         <v>1791</v>
       </c>
       <c r="N189" s="3" t="str">
-        <f>M189&amp;" ("&amp;AU189&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally ≥ 30 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O189" s="3" t="s">
@@ -30708,11 +30581,11 @@
         <v>1595</v>
       </c>
       <c r="I190" s="3" t="str">
-        <f>IF(G190=H190,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J190" s="4" t="str">
-        <f>B190&amp;"."&amp;C190</f>
+        <f t="shared" si="14"/>
         <v>11.19</v>
       </c>
       <c r="K190" s="3" t="s">
@@ -30723,7 +30596,7 @@
         <v>1894</v>
       </c>
       <c r="N190" s="3" t="str">
-        <f>M190&amp;" ("&amp;AU190&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O190" s="5" t="s">
@@ -30812,11 +30685,11 @@
         <v>1596</v>
       </c>
       <c r="I191" s="3" t="str">
-        <f>IF(G191=H191,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J191" s="4" t="str">
-        <f>B191&amp;"."&amp;C191</f>
+        <f t="shared" si="14"/>
         <v>11.20</v>
       </c>
       <c r="K191" s="3" t="s">
@@ -30827,7 +30700,7 @@
         <v>279</v>
       </c>
       <c r="N191" s="3" t="str">
-        <f>M191&amp;" ("&amp;AU191&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &gt; 50 (Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O191" s="5" t="s">
@@ -30912,11 +30785,11 @@
         <v>1597</v>
       </c>
       <c r="I192" s="3" t="str">
-        <f>IF(G192=H192,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J192" s="4" t="str">
-        <f>B192&amp;"."&amp;C192</f>
+        <f t="shared" si="14"/>
         <v>11.21</v>
       </c>
       <c r="K192" s="3" t="s">
@@ -30927,7 +30800,7 @@
         <v>643</v>
       </c>
       <c r="N192" s="3" t="str">
-        <f>M192&amp;" ("&amp;AU192&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Dependent on species' density (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O192" s="5" t="s">
@@ -31014,11 +30887,11 @@
         <v>1598</v>
       </c>
       <c r="I193" s="3" t="str">
-        <f>IF(G193=H193,"false","TRUE")</f>
+        <f t="shared" si="11"/>
         <v>false</v>
       </c>
       <c r="J193" s="35" t="str">
-        <f>B193&amp;"."&amp;C193</f>
+        <f t="shared" si="14"/>
         <v>11.22</v>
       </c>
       <c r="K193" s="3" t="s">
@@ -31029,7 +30902,7 @@
         <v>1848</v>
       </c>
       <c r="N193" s="3" t="str">
-        <f>M193&amp;" ("&amp;AU193&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O193" s="13" t="s">
@@ -31116,11 +30989,11 @@
         <v>1606</v>
       </c>
       <c r="I194" s="3" t="str">
-        <f>IF(G194=H194,"false","TRUE")</f>
+        <f t="shared" ref="I194:I257" si="15">IF(G194=H194,"false","TRUE")</f>
         <v>false</v>
       </c>
       <c r="J194" s="4" t="str">
-        <f>B194&amp;"."&amp;C194</f>
+        <f t="shared" si="14"/>
         <v>11.23</v>
       </c>
       <c r="K194" s="3" t="s">
@@ -31131,7 +31004,7 @@
         <v>584</v>
       </c>
       <c r="N194" s="3" t="str">
-        <f>M194&amp;" ("&amp;AU194&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O194" s="5" t="s">
@@ -31216,11 +31089,11 @@
         <v>1607</v>
       </c>
       <c r="I195" s="3" t="str">
-        <f>IF(G195=H195,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J195" s="4" t="str">
-        <f>B195&amp;"."&amp;C195</f>
+        <f t="shared" si="14"/>
         <v>11.24</v>
       </c>
       <c r="K195" s="3" t="s">
@@ -31231,7 +31104,7 @@
         <v>1896</v>
       </c>
       <c r="N195" s="3" t="str">
-        <f>M195&amp;" ("&amp;AU195&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="O195" s="5" t="s">
@@ -31318,11 +31191,11 @@
         <v>1613</v>
       </c>
       <c r="I196" s="3" t="str">
-        <f>IF(G196=H196,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J196" s="4" t="str">
-        <f>B196&amp;"."&amp;C196</f>
+        <f t="shared" si="14"/>
         <v>12.6</v>
       </c>
       <c r="K196" s="3" t="s">
@@ -31333,7 +31206,7 @@
         <v>1848</v>
       </c>
       <c r="N196" s="3" t="str">
-        <f>M196&amp;" ("&amp;AU196&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O196" s="3" t="s">
@@ -31420,11 +31293,11 @@
         <v>1608</v>
       </c>
       <c r="I197" s="3" t="str">
-        <f>IF(G197=H197,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J197" s="4" t="str">
-        <f>B197&amp;"."&amp;C197</f>
+        <f t="shared" si="14"/>
         <v>12.1</v>
       </c>
       <c r="K197" s="3" t="s">
@@ -31435,7 +31308,7 @@
         <v>153</v>
       </c>
       <c r="N197" s="3" t="str">
-        <f>M197&amp;" ("&amp;AU197&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Random with respect to movement ([*viii][REM: Rovero et al., 2013; Rowcliffe et al., 2013; Wearn &amp; Glover-Kapfer, 2017; Loonam et al., 2021])</v>
       </c>
       <c r="O197" s="3" t="s">
@@ -31524,11 +31397,11 @@
         <v>1609</v>
       </c>
       <c r="I198" s="3" t="str">
-        <f>IF(G198=H198,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J198" s="4" t="str">
-        <f>B198&amp;"."&amp;C198</f>
+        <f t="shared" si="14"/>
         <v>12.2</v>
       </c>
       <c r="K198" s="3" t="s">
@@ -31539,7 +31412,7 @@
         <v>95</v>
       </c>
       <c r="N198" s="3" t="str">
-        <f>M198&amp;" ("&amp;AU198&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic ([REM: Loonam et al., 2021])</v>
       </c>
       <c r="O198" s="3" t="s">
@@ -31626,11 +31499,11 @@
         <v>1610</v>
       </c>
       <c r="I199" s="3" t="str">
-        <f>IF(G199=H199,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J199" s="4" t="str">
-        <f>B199&amp;"."&amp;C199</f>
+        <f t="shared" si="14"/>
         <v>12.3</v>
       </c>
       <c r="K199" s="3" t="s">
@@ -31641,7 +31514,7 @@
         <v>67</v>
       </c>
       <c r="N199" s="3" t="str">
-        <f>M199&amp;" ("&amp;AU199&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>Systematic random ([*ix][REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O199" s="3" t="s">
@@ -31728,11 +31601,11 @@
         <v>1611</v>
       </c>
       <c r="I200" s="3" t="str">
-        <f>IF(G200=H200,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J200" s="4" t="str">
-        <f>B200&amp;"."&amp;C200</f>
+        <f t="shared" si="14"/>
         <v>12.4</v>
       </c>
       <c r="K200" s="3" t="s">
@@ -31743,7 +31616,7 @@
         <v>120</v>
       </c>
       <c r="N200" s="3" t="str">
-        <f>M200&amp;" ("&amp;AU200&amp;")"</f>
+        <f t="shared" ref="N200:N263" si="16">M200&amp;" ("&amp;AU200&amp;")"</f>
         <v>Stratified random ([REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O200" s="3" t="s">
@@ -31830,11 +31703,11 @@
         <v>1612</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f>IF(G201=H201,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J201" s="4" t="str">
-        <f>B201&amp;"."&amp;C201</f>
+        <f t="shared" si="14"/>
         <v>12.5</v>
       </c>
       <c r="K201" s="3" t="s">
@@ -31845,7 +31718,7 @@
         <v>113</v>
       </c>
       <c r="N201" s="3" t="str">
-        <f>M201&amp;" ("&amp;AU201&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Stratified targeted ([*x][REM: Wearn &amp; Glover-Kapfer, 2017])</v>
       </c>
       <c r="O201" s="3" t="s">
@@ -31934,11 +31807,11 @@
         <v>1631</v>
       </c>
       <c r="I202" s="3" t="str">
-        <f>IF(G202=H202,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J202" s="4" t="str">
-        <f>B202&amp;"."&amp;C202</f>
+        <f t="shared" si="14"/>
         <v>12.12</v>
       </c>
       <c r="K202" s="3" t="s">
@@ -31949,7 +31822,7 @@
         <v>1848</v>
       </c>
       <c r="N202" s="3" t="str">
-        <f>M202&amp;" ("&amp;AU202&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O202" s="7" t="s">
@@ -32036,11 +31909,11 @@
         <v>1626</v>
       </c>
       <c r="I203" s="3" t="str">
-        <f>IF(G203=H203,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J203" s="4" t="str">
-        <f>B203&amp;"."&amp;C203</f>
+        <f t="shared" si="14"/>
         <v>12.7</v>
       </c>
       <c r="K203" s="3" t="s">
@@ -32051,7 +31924,7 @@
         <v>1898</v>
       </c>
       <c r="N203" s="3" t="str">
-        <f>M203&amp;" ("&amp;AU203&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O203" s="7" t="s">
@@ -32144,11 +32017,11 @@
         <v>1627</v>
       </c>
       <c r="I204" s="3" t="str">
-        <f>IF(G204=H204,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J204" s="4" t="str">
-        <f>B204&amp;"."&amp;C204</f>
+        <f t="shared" ref="J204:J235" si="17">B204&amp;"."&amp;C204</f>
         <v>12.8</v>
       </c>
       <c r="K204" s="3" t="s">
@@ -32159,7 +32032,7 @@
         <v>626</v>
       </c>
       <c r="N204" s="3" t="str">
-        <f>M204&amp;" ("&amp;AU204&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally &gt; 20 detections (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O204" s="7" t="s">
@@ -32250,11 +32123,11 @@
         <v>1628</v>
       </c>
       <c r="I205" s="3" t="str">
-        <f>IF(G205=H205,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J205" s="4" t="str">
-        <f>B205&amp;"."&amp;C205</f>
+        <f t="shared" si="17"/>
         <v>12.9</v>
       </c>
       <c r="K205" s="3" t="s">
@@ -32265,7 +32138,7 @@
         <v>1852</v>
       </c>
       <c r="N205" s="3" t="str">
-        <f>M205&amp;" ("&amp;AU205&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Often 2000 (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O205" s="7" t="s">
@@ -32352,11 +32225,11 @@
         <v>1629</v>
       </c>
       <c r="I206" s="3" t="str">
-        <f>IF(G206=H206,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J206" s="4" t="str">
-        <f>B206&amp;"."&amp;C206</f>
+        <f t="shared" si="17"/>
         <v>12.10</v>
       </c>
       <c r="K206" s="3" t="s">
@@ -32367,7 +32240,7 @@
         <v>1907</v>
       </c>
       <c r="N206" s="3" t="str">
-        <f>M206&amp;" ("&amp;AU206&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>10,00-10,000 (for most, if estimates of activity and speed are to be reasonably precise) (REM: Rowcliffe et al., 2016)</v>
       </c>
       <c r="O206" s="7" t="s">
@@ -32452,11 +32325,11 @@
         <v>1630</v>
       </c>
       <c r="I207" s="3" t="str">
-        <f>IF(G207=H207,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J207" s="4" t="str">
-        <f>B207&amp;"."&amp;C207</f>
+        <f t="shared" si="17"/>
         <v>12.11</v>
       </c>
       <c r="K207" s="3" t="s">
@@ -32467,7 +32340,7 @@
         <v>1799</v>
       </c>
       <c r="N207" s="3" t="str">
-        <f>M207&amp;" ("&amp;AU207&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 2000 (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O207" s="7" t="s">
@@ -32558,11 +32431,11 @@
         <v>1620</v>
       </c>
       <c r="I208" s="3" t="str">
-        <f>IF(G208=H208,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J208" s="4" t="str">
-        <f>B208&amp;"."&amp;C208</f>
+        <f t="shared" si="17"/>
         <v>12.19</v>
       </c>
       <c r="K208" s="3" t="s">
@@ -32573,7 +32446,7 @@
         <v>1848</v>
       </c>
       <c r="N208" s="3" t="str">
-        <f>M208&amp;" ("&amp;AU208&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O208" s="3" t="s">
@@ -32660,11 +32533,11 @@
         <v>1614</v>
       </c>
       <c r="I209" s="3" t="str">
-        <f>IF(G209=H209,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J209" s="4" t="str">
-        <f>B209&amp;"."&amp;C209</f>
+        <f t="shared" si="17"/>
         <v>12.13</v>
       </c>
       <c r="K209" s="3" t="s">
@@ -32675,7 +32548,7 @@
         <v>1895</v>
       </c>
       <c r="N209" s="3" t="str">
-        <f>M209&amp;" ("&amp;AU209&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O209" s="3" t="s">
@@ -32764,11 +32637,11 @@
         <v>1615</v>
       </c>
       <c r="I210" s="3" t="str">
-        <f>IF(G210=H210,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J210" s="4" t="str">
-        <f>B210&amp;"."&amp;C210</f>
+        <f t="shared" si="17"/>
         <v>12.14</v>
       </c>
       <c r="K210" s="3" t="s">
@@ -32779,7 +32652,7 @@
         <v>1792</v>
       </c>
       <c r="N210" s="3" t="str">
-        <f>M210&amp;" ("&amp;AU210&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O210" s="3" t="s">
@@ -32866,11 +32739,11 @@
         <v>1616</v>
       </c>
       <c r="I211" s="3" t="str">
-        <f>IF(G211=H211,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J211" s="4" t="str">
-        <f>B211&amp;"."&amp;C211</f>
+        <f t="shared" si="17"/>
         <v>12.15</v>
       </c>
       <c r="K211" s="3" t="s">
@@ -32881,7 +32754,7 @@
         <v>654</v>
       </c>
       <c r="N211" s="3" t="str">
-        <f>M211&amp;" ("&amp;AU211&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="O211" s="3" t="s">
@@ -32970,11 +32843,11 @@
         <v>1617</v>
       </c>
       <c r="I212" s="3" t="str">
-        <f>IF(G212=H212,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J212" s="4" t="str">
-        <f>B212&amp;"."&amp;C212</f>
+        <f t="shared" si="17"/>
         <v>12.16</v>
       </c>
       <c r="K212" s="3" t="s">
@@ -32985,7 +32858,7 @@
         <v>271</v>
       </c>
       <c r="N212" s="3" t="str">
-        <f>M212&amp;" ("&amp;AU212&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O212" s="3" t="s">
@@ -33074,11 +32947,11 @@
         <v>1618</v>
       </c>
       <c r="I213" s="3" t="str">
-        <f>IF(G213=H213,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J213" s="4" t="str">
-        <f>B213&amp;"."&amp;C213</f>
+        <f t="shared" si="17"/>
         <v>12.17</v>
       </c>
       <c r="K213" s="3" t="s">
@@ -33089,7 +32962,7 @@
         <v>1860</v>
       </c>
       <c r="N213" s="3" t="str">
-        <f>M213&amp;" ("&amp;AU213&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O213" s="3" t="s">
@@ -33178,11 +33051,11 @@
         <v>1619</v>
       </c>
       <c r="I214" s="3" t="str">
-        <f>IF(G214=H214,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J214" s="4" t="str">
-        <f>B214&amp;"."&amp;C214</f>
+        <f t="shared" si="17"/>
         <v>12.18</v>
       </c>
       <c r="K214" s="3" t="s">
@@ -33193,7 +33066,7 @@
         <v>1858</v>
       </c>
       <c r="N214" s="3" t="str">
-        <f>M214&amp;" ("&amp;AU214&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O214" s="3" t="s">
@@ -33282,11 +33155,11 @@
         <v>1624</v>
       </c>
       <c r="I215" s="3" t="str">
-        <f>IF(G215=H215,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J215" s="4" t="str">
-        <f>B215&amp;"."&amp;C215</f>
+        <f t="shared" si="17"/>
         <v>12.20</v>
       </c>
       <c r="K215" s="3" t="s">
@@ -33297,7 +33170,7 @@
         <v>1895</v>
       </c>
       <c r="N215" s="3" t="str">
-        <f>M215&amp;" ("&amp;AU215&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O215" s="3" t="s">
@@ -33384,11 +33257,11 @@
         <v>1625</v>
       </c>
       <c r="I216" s="3" t="str">
-        <f>IF(G216=H216,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J216" s="4" t="str">
-        <f>B216&amp;"."&amp;C216</f>
+        <f t="shared" si="17"/>
         <v>12.21</v>
       </c>
       <c r="K216" s="3" t="s">
@@ -33399,7 +33272,7 @@
         <v>1791</v>
       </c>
       <c r="N216" s="3" t="str">
-        <f>M216&amp;" ("&amp;AU216&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally ≥ 30 (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O216" s="3" t="s">
@@ -33484,11 +33357,11 @@
         <v>1621</v>
       </c>
       <c r="I217" s="3" t="str">
-        <f>IF(G217=H217,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J217" s="4" t="str">
-        <f>B217&amp;"."&amp;C217</f>
+        <f t="shared" si="17"/>
         <v>12.22</v>
       </c>
       <c r="K217" s="3" t="s">
@@ -33499,7 +33372,7 @@
         <v>1894</v>
       </c>
       <c r="N217" s="3" t="str">
-        <f>M217&amp;" ("&amp;AU217&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O217" s="5" t="s">
@@ -33590,11 +33463,11 @@
         <v>1622</v>
       </c>
       <c r="I218" s="3" t="str">
-        <f>IF(G218=H218,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J218" s="4" t="str">
-        <f>B218&amp;"."&amp;C218</f>
+        <f t="shared" si="17"/>
         <v>12.23</v>
       </c>
       <c r="K218" s="3" t="s">
@@ -33605,7 +33478,7 @@
         <v>279</v>
       </c>
       <c r="N218" s="3" t="str">
-        <f>M218&amp;" ("&amp;AU218&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally &gt; 50 (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O218" s="5" t="s">
@@ -33692,11 +33565,11 @@
         <v>1623</v>
       </c>
       <c r="I219" s="3" t="str">
-        <f>IF(G219=H219,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J219" s="4" t="str">
-        <f>B219&amp;"."&amp;C219</f>
+        <f t="shared" si="17"/>
         <v>12.24</v>
       </c>
       <c r="K219" s="3" t="s">
@@ -33707,7 +33580,7 @@
         <v>643</v>
       </c>
       <c r="N219" s="3" t="str">
-        <f>M219&amp;" ("&amp;AU219&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Dependent on species' density (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O219" s="5" t="s">
@@ -33796,11 +33669,11 @@
         <v>1634</v>
       </c>
       <c r="I220" s="3" t="str">
-        <f>IF(G220=H220,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J220" s="4" t="str">
-        <f>B220&amp;"."&amp;C220</f>
+        <f t="shared" si="17"/>
         <v>12.27</v>
       </c>
       <c r="K220" s="3" t="s">
@@ -33811,7 +33684,7 @@
         <v>1848</v>
       </c>
       <c r="N220" s="3" t="str">
-        <f>M220&amp;" ("&amp;AU220&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Note: these recommendations are the same as REM (Moeller et al., 2023; Becker et al., 2022)</v>
       </c>
       <c r="O220" s="5" t="s">
@@ -33898,11 +33771,11 @@
         <v>1632</v>
       </c>
       <c r="I221" s="3" t="str">
-        <f>IF(G221=H221,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J221" s="4" t="str">
-        <f>B221&amp;"."&amp;C221</f>
+        <f t="shared" si="17"/>
         <v>12.25</v>
       </c>
       <c r="K221" s="3" t="s">
@@ -33913,7 +33786,7 @@
         <v>584</v>
       </c>
       <c r="N221" s="3" t="str">
-        <f>M221&amp;" ("&amp;AU221&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O221" s="5" t="s">
@@ -34000,11 +33873,11 @@
         <v>1633</v>
       </c>
       <c r="I222" s="3" t="str">
-        <f>IF(G222=H222,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J222" s="4" t="str">
-        <f>B222&amp;"."&amp;C222</f>
+        <f t="shared" si="17"/>
         <v>12.26</v>
       </c>
       <c r="K222" s="3" t="s">
@@ -34015,7 +33888,7 @@
         <v>1896</v>
       </c>
       <c r="N222" s="3" t="str">
-        <f>M222&amp;" ("&amp;AU222&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="O222" s="5" t="s">
@@ -34104,11 +33977,11 @@
         <v>1525</v>
       </c>
       <c r="I223" s="3" t="str">
-        <f>IF(G223=H223,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J223" s="4" t="str">
-        <f>B223&amp;"."&amp;C223</f>
+        <f t="shared" si="17"/>
         <v>8.1</v>
       </c>
       <c r="K223" s="3" t="s">
@@ -34119,7 +33992,7 @@
         <v>67</v>
       </c>
       <c r="N223" s="3" t="str">
-        <f>M223&amp;" ("&amp;AU223&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Systematic random (Sun et al., 2014; Clark, 2019; Clarke et al., 2023)</v>
       </c>
       <c r="O223" s="3" t="s">
@@ -34204,11 +34077,11 @@
         <v>1526</v>
       </c>
       <c r="I224" s="3" t="str">
-        <f>IF(G224=H224,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J224" s="4" t="str">
-        <f>B224&amp;"."&amp;C224</f>
+        <f t="shared" si="17"/>
         <v>8.2</v>
       </c>
       <c r="K224" s="3" t="s">
@@ -34219,7 +34092,7 @@
         <v>250</v>
       </c>
       <c r="N224" s="3" t="str">
-        <f>M224&amp;" ("&amp;AU224&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Clustered (Sun et al., 2014; Clark, 2019; Clarke et al., 2023)</v>
       </c>
       <c r="O224" s="3" t="s">
@@ -34304,11 +34177,11 @@
         <v>1535</v>
       </c>
       <c r="I225" s="3" t="str">
-        <f>IF(G225=H225,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J225" s="4" t="str">
-        <f>B225&amp;"."&amp;C225</f>
+        <f t="shared" si="17"/>
         <v>8.3</v>
       </c>
       <c r="K225" s="3" t="s">
@@ -34319,7 +34192,7 @@
         <v>183</v>
       </c>
       <c r="N225" s="3" t="str">
-        <f>M225&amp;" ("&amp;AU225&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>No recommendation (NA)</v>
       </c>
       <c r="O225" s="7" t="s">
@@ -34404,11 +34277,11 @@
         <v>1527</v>
       </c>
       <c r="I226" s="3" t="str">
-        <f>IF(G226=H226,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J226" s="4" t="str">
-        <f>B226&amp;"."&amp;C226</f>
+        <f t="shared" si="17"/>
         <v>8.4</v>
       </c>
       <c r="K226" s="3" t="s">
@@ -34419,7 +34292,7 @@
         <v>232</v>
       </c>
       <c r="N226" s="3" t="str">
-        <f>M226&amp;" ("&amp;AU226&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Close enough that individuals will be detected at multiple locations (Royle et al., 2009; Clarke et al., 2023)</v>
       </c>
       <c r="O226" s="3" t="s">
@@ -34500,11 +34373,11 @@
         <v>1530</v>
       </c>
       <c r="I227" s="3" t="str">
-        <f>IF(G227=H227,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J227" s="4" t="str">
-        <f>B227&amp;"."&amp;C227</f>
+        <f t="shared" si="17"/>
         <v>8.5</v>
       </c>
       <c r="K227" s="3" t="s">
@@ -34515,7 +34388,7 @@
         <v>1901</v>
       </c>
       <c r="N227" s="3" t="str">
-        <f>M227&amp;" ("&amp;AU227&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O227" s="3" t="s">
@@ -34604,11 +34477,11 @@
         <v>1531</v>
       </c>
       <c r="I228" s="3" t="str">
-        <f>IF(G228=H228,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J228" s="4" t="str">
-        <f>B228&amp;"."&amp;C228</f>
+        <f t="shared" si="17"/>
         <v>8.6</v>
       </c>
       <c r="K228" s="3" t="s">
@@ -34619,7 +34492,7 @@
         <v>1739</v>
       </c>
       <c r="N228" s="3" t="str">
-        <f>M228&amp;" ("&amp;AU228&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O228" s="3" t="s">
@@ -34704,11 +34577,11 @@
         <v>1532</v>
       </c>
       <c r="I229" s="3" t="str">
-        <f>IF(G229=H229,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J229" s="4" t="str">
-        <f>B229&amp;"."&amp;C229</f>
+        <f t="shared" si="17"/>
         <v>8.7</v>
       </c>
       <c r="K229" s="3" t="s">
@@ -34719,7 +34592,7 @@
         <v>1758</v>
       </c>
       <c r="N229" s="3" t="str">
-        <f>M229&amp;" ("&amp;AU229&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O229" s="3" t="s">
@@ -34804,11 +34677,11 @@
         <v>1534</v>
       </c>
       <c r="I230" s="12" t="str">
-        <f>IF(G230=H230,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J230" s="35" t="str">
-        <f>B230&amp;"."&amp;C230</f>
+        <f t="shared" si="17"/>
         <v>8.9</v>
       </c>
       <c r="K230" s="12" t="s">
@@ -34819,7 +34692,7 @@
         <v>862</v>
       </c>
       <c r="N230" s="12" t="str">
-        <f>M230&amp;" ("&amp;AU230&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>NULL (NA)</v>
       </c>
       <c r="O230" s="12" t="s">
@@ -34904,11 +34777,11 @@
         <v>1528</v>
       </c>
       <c r="I231" s="3" t="str">
-        <f>IF(G231=H231,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J231" s="4" t="str">
-        <f>B231&amp;"."&amp;C231</f>
+        <f t="shared" si="17"/>
         <v>8.10</v>
       </c>
       <c r="K231" s="3" t="s">
@@ -34919,7 +34792,7 @@
         <v>1900</v>
       </c>
       <c r="N231" s="3" t="str">
-        <f>M231&amp;" ("&amp;AU231&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="O231" s="5" t="s">
@@ -35008,11 +34881,11 @@
         <v>1529</v>
       </c>
       <c r="I232" s="3" t="str">
-        <f>IF(G232=H232,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J232" s="4" t="str">
-        <f>B232&amp;"."&amp;C232</f>
+        <f t="shared" si="17"/>
         <v>8.11</v>
       </c>
       <c r="K232" s="3" t="s">
@@ -35023,7 +34896,7 @@
         <v>706</v>
       </c>
       <c r="N232" s="3" t="str">
-        <f>M232&amp;" ("&amp;AU232&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar et al., 2018; Sun et al., 2022)</v>
       </c>
       <c r="O232" s="5" t="s">
@@ -35110,11 +34983,11 @@
         <v>1536</v>
       </c>
       <c r="I233" s="3" t="str">
-        <f>IF(G233=H233,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J233" s="4" t="str">
-        <f>B233&amp;"."&amp;C233</f>
+        <f t="shared" si="17"/>
         <v>8.12</v>
       </c>
       <c r="K233" s="3" t="s">
@@ -35125,7 +34998,7 @@
         <v>1899</v>
       </c>
       <c r="N233" s="3" t="str">
-        <f>M233&amp;" ("&amp;AU233&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O233" s="36" t="s">
@@ -35214,11 +35087,11 @@
         <v>1537</v>
       </c>
       <c r="I234" s="3" t="str">
-        <f>IF(G234=H234,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J234" s="4" t="str">
-        <f>B234&amp;"."&amp;C234</f>
+        <f t="shared" si="17"/>
         <v>8.13</v>
       </c>
       <c r="K234" s="3" t="s">
@@ -35229,7 +35102,7 @@
         <v>339</v>
       </c>
       <c r="N234" s="3" t="str">
-        <f>M234&amp;" ("&amp;AU234&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O234" s="5" t="s">
@@ -35314,11 +35187,11 @@
         <v>1538</v>
       </c>
       <c r="I235" s="3" t="str">
-        <f>IF(G235=H235,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J235" s="4" t="str">
-        <f>B235&amp;"."&amp;C235</f>
+        <f t="shared" si="17"/>
         <v>8.14</v>
       </c>
       <c r="K235" s="3" t="s">
@@ -35329,7 +35202,7 @@
         <v>495</v>
       </c>
       <c r="N235" s="3" t="str">
-        <f>M235&amp;" ("&amp;AU235&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O235" s="5" t="s">
@@ -35416,11 +35289,11 @@
         <v>1485</v>
       </c>
       <c r="I236" s="3" t="str">
-        <f>IF(G236=H236,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J236" s="4" t="str">
-        <f>B236&amp;"."&amp;C236</f>
+        <f t="shared" ref="J236:J267" si="18">B236&amp;"."&amp;C236</f>
         <v>6.1</v>
       </c>
       <c r="K236" s="3" t="s">
@@ -35431,7 +35304,7 @@
         <v>169</v>
       </c>
       <c r="N236" s="3" t="str">
-        <f>M236&amp;" ("&amp;AU236&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Paired (Rovero et al., 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O236" s="3" t="s">
@@ -35516,11 +35389,11 @@
         <v>1486</v>
       </c>
       <c r="I237" s="3" t="str">
-        <f>IF(G237=H237,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J237" s="75" t="str">
-        <f>B237&amp;"."&amp;C237</f>
+        <f t="shared" si="18"/>
         <v>6.2</v>
       </c>
       <c r="K237" s="3" t="s">
@@ -35531,7 +35404,7 @@
         <v>250</v>
       </c>
       <c r="N237" s="3" t="str">
-        <f>M237&amp;" ("&amp;AU237&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Clustered (Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O237" s="73" t="s">
@@ -35616,11 +35489,11 @@
         <v>1487</v>
       </c>
       <c r="I238" s="3" t="str">
-        <f>IF(G238=H238,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J238" s="4" t="str">
-        <f>B238&amp;"."&amp;C238</f>
+        <f t="shared" si="18"/>
         <v>6.3</v>
       </c>
       <c r="K238" s="3" t="s">
@@ -35631,7 +35504,7 @@
         <v>95</v>
       </c>
       <c r="N238" s="3" t="str">
-        <f>M238&amp;" ("&amp;AU238&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Systematic (Clarke et al., 2023)</v>
       </c>
       <c r="O238" s="3" t="s">
@@ -35716,11 +35589,11 @@
         <v>1504</v>
       </c>
       <c r="I239" s="3" t="str">
-        <f>IF(G239=H239,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J239" s="4" t="str">
-        <f>B239&amp;"."&amp;C239</f>
+        <f t="shared" si="18"/>
         <v>6.4</v>
       </c>
       <c r="K239" s="3" t="s">
@@ -35731,7 +35604,7 @@
         <v>619</v>
       </c>
       <c r="N239" s="3" t="str">
-        <f>M239&amp;" ("&amp;AU239&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Enough for 20-50 recaptures (Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O239" s="7" t="s">
@@ -35820,11 +35693,11 @@
         <v>1505</v>
       </c>
       <c r="I240" s="3" t="str">
-        <f>IF(G240=H240,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J240" s="4" t="str">
-        <f>B240&amp;"."&amp;C240</f>
+        <f t="shared" si="18"/>
         <v>6.5</v>
       </c>
       <c r="K240" s="3" t="s">
@@ -35835,7 +35708,7 @@
         <v>1744</v>
       </c>
       <c r="N240" s="3" t="str">
-        <f>M240&amp;" ("&amp;AU240&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 1000 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O240" s="7" t="s">
@@ -35918,11 +35791,11 @@
         <v>1506</v>
       </c>
       <c r="I241" s="3" t="str">
-        <f>IF(G241=H241,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J241" s="4" t="str">
-        <f>B241&amp;"."&amp;C241</f>
+        <f t="shared" si="18"/>
         <v>6.6</v>
       </c>
       <c r="K241" s="3" t="s">
@@ -35933,7 +35806,7 @@
         <v>1743</v>
       </c>
       <c r="N241" s="3" t="str">
-        <f>M241&amp;" ("&amp;AU241&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 1200 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O241" s="7" t="s">
@@ -36018,11 +35891,11 @@
         <v>1507</v>
       </c>
       <c r="I242" s="3" t="str">
-        <f>IF(G242=H242,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J242" s="4" t="str">
-        <f>B242&amp;"."&amp;C242</f>
+        <f t="shared" si="18"/>
         <v>6.7</v>
       </c>
       <c r="K242" s="3" t="s">
@@ -36033,7 +35906,7 @@
         <v>1742</v>
       </c>
       <c r="N242" s="3" t="str">
-        <f>M242&amp;" ("&amp;AU242&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 3500 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O242" s="7" t="s">
@@ -36118,11 +35991,11 @@
         <v>1488</v>
       </c>
       <c r="I243" s="3" t="str">
-        <f>IF(G243=H243,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J243" s="4" t="str">
-        <f>B243&amp;"."&amp;C243</f>
+        <f t="shared" si="18"/>
         <v>6.8</v>
       </c>
       <c r="K243" s="3" t="s">
@@ -36133,7 +36006,7 @@
         <v>1765</v>
       </c>
       <c r="N243" s="3" t="str">
-        <f>M243&amp;" ("&amp;AU243&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt; home range diameter (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O243" s="3" t="s">
@@ -36220,11 +36093,11 @@
         <v>1489</v>
       </c>
       <c r="I244" s="3" t="str">
-        <f>IF(G244=H244,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J244" s="4" t="str">
-        <f>B244&amp;"."&amp;C244</f>
+        <f t="shared" si="18"/>
         <v>6.9</v>
       </c>
       <c r="K244" s="3" t="s">
@@ -36235,7 +36108,7 @@
         <v>1763</v>
       </c>
       <c r="N244" s="3" t="str">
-        <f>M244&amp;" ("&amp;AU244&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally 1/3 the home range radius (~4-7 camera per home range) (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O244" s="3" t="s">
@@ -36322,11 +36195,11 @@
         <v>1490</v>
       </c>
       <c r="I245" s="3" t="str">
-        <f>IF(G245=H245,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J245" s="4" t="str">
-        <f>B245&amp;"."&amp;C245</f>
+        <f t="shared" si="18"/>
         <v>6.10</v>
       </c>
       <c r="K245" s="3" t="s">
@@ -36337,7 +36210,7 @@
         <v>1904</v>
       </c>
       <c r="N245" s="3" t="str">
-        <f>M245&amp;" ("&amp;AU245&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;Maximum of 0.8 times the home range radius&lt;/b&gt; (Sollmann et al., 2012; Sun et al., 2014; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O245" s="3" t="s">
@@ -36426,11 +36299,11 @@
         <v>1500</v>
       </c>
       <c r="I246" s="3" t="str">
-        <f>IF(G246=H246,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J246" s="4" t="str">
-        <f>B246&amp;"."&amp;C246</f>
+        <f t="shared" si="18"/>
         <v>6.11</v>
       </c>
       <c r="K246" s="3" t="s">
@@ -36441,7 +36314,7 @@
         <v>1739</v>
       </c>
       <c r="N246" s="3" t="str">
-        <f>M246&amp;" ("&amp;AU246&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O246" s="3" t="s">
@@ -36526,11 +36399,11 @@
         <v>1501</v>
       </c>
       <c r="I247" s="3" t="str">
-        <f>IF(G247=H247,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J247" s="4" t="str">
-        <f>B247&amp;"."&amp;C247</f>
+        <f t="shared" si="18"/>
         <v>6.12</v>
       </c>
       <c r="K247" s="3" t="s">
@@ -36541,7 +36414,7 @@
         <v>1758</v>
       </c>
       <c r="N247" s="3" t="str">
-        <f>M247&amp;" ("&amp;AU247&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O247" s="3" t="s">
@@ -36626,11 +36499,11 @@
         <v>1502</v>
       </c>
       <c r="I248" s="3" t="str">
-        <f>IF(G248=H248,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J248" s="4" t="str">
-        <f>B248&amp;"."&amp;C248</f>
+        <f t="shared" si="18"/>
         <v>6.13</v>
       </c>
       <c r="K248" s="3" t="s">
@@ -36641,7 +36514,7 @@
         <v>1756</v>
       </c>
       <c r="N248" s="3" t="str">
-        <f>M248&amp;" ("&amp;AU248&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O248" s="3" t="s">
@@ -36726,11 +36599,11 @@
         <v>1492</v>
       </c>
       <c r="I249" s="3" t="str">
-        <f>IF(G249=H249,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J249" s="75" t="str">
-        <f>B249&amp;"."&amp;C249</f>
+        <f t="shared" si="18"/>
         <v>6.15</v>
       </c>
       <c r="K249" s="3" t="s">
@@ -36741,7 +36614,7 @@
         <v>1775</v>
       </c>
       <c r="N249" s="3" t="str">
-        <f>M249&amp;" ("&amp;AU249&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 4 per home range (or less*) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O249" s="74" t="s">
@@ -36826,11 +36699,11 @@
         <v>1771</v>
       </c>
       <c r="I250" s="3" t="str">
-        <f>IF(G250=H250,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J250" s="75" t="str">
-        <f>B250&amp;"."&amp;C250</f>
+        <f t="shared" si="18"/>
         <v>6.16</v>
       </c>
       <c r="K250" s="3" t="s">
@@ -36841,7 +36714,7 @@
         <v>862</v>
       </c>
       <c r="N250" s="3" t="str">
-        <f>M250&amp;" ("&amp;AU250&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>NULL ()</v>
       </c>
       <c r="O250" s="73" t="s">
@@ -36930,11 +36803,11 @@
         <v>1495</v>
       </c>
       <c r="I251" s="3" t="str">
-        <f>IF(G251=H251,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J251" s="75" t="str">
-        <f>B251&amp;"."&amp;C251</f>
+        <f t="shared" si="18"/>
         <v>6.17</v>
       </c>
       <c r="K251" s="3" t="s">
@@ -36945,7 +36818,7 @@
         <v>1903</v>
       </c>
       <c r="N251" s="3" t="str">
-        <f>M251&amp;" ("&amp;AU251&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;Enough to expose 10-30 individuals to sampling (minumum)&lt;/b&gt; (Karanth et al., 2011; Krebs et al., 2011; Noss et al., 2012; Rovero et al., 2013; Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O251" s="74" t="s">
@@ -37036,11 +36909,11 @@
         <v>1771</v>
       </c>
       <c r="I252" s="3" t="str">
-        <f>IF(G252=H252,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J252" s="75" t="str">
-        <f>B252&amp;"."&amp;C252</f>
+        <f t="shared" si="18"/>
         <v>6.18</v>
       </c>
       <c r="K252" s="3" t="s">
@@ -37051,7 +36924,7 @@
         <v>242</v>
       </c>
       <c r="N252" s="3" t="str">
-        <f>M252&amp;" ("&amp;AU252&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally enough to capture &gt; 20 individuals (minimum 20 to encompass home ranges)  (White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O252" s="74" t="s">
@@ -37138,11 +37011,11 @@
         <v>1771</v>
       </c>
       <c r="I253" s="3" t="str">
-        <f>IF(G253=H253,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J253" s="75" t="str">
-        <f>B253&amp;"."&amp;C253</f>
+        <f t="shared" si="18"/>
         <v>6.19</v>
       </c>
       <c r="K253" s="3" t="s">
@@ -37153,7 +37026,7 @@
         <v>239</v>
       </c>
       <c r="N253" s="3" t="str">
-        <f>M253&amp;" ("&amp;AU253&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally enough for 20-50 total recaptures (Efford, 2004; Noss et al., 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O253" s="74" t="s">
@@ -37242,11 +37115,11 @@
         <v>1491</v>
       </c>
       <c r="I254" s="3" t="str">
-        <f>IF(G254=H254,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J254" s="75" t="str">
-        <f>B254&amp;"."&amp;C254</f>
+        <f t="shared" si="18"/>
         <v>6.20</v>
       </c>
       <c r="K254" s="3" t="s">
@@ -37257,7 +37130,7 @@
         <v>1894</v>
       </c>
       <c r="N254" s="3" t="str">
-        <f>M254&amp;" ("&amp;AU254&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (White et al., 1982; Foster &amp; Harmsen, 2012; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O254" s="74" t="s">
@@ -37348,11 +37221,11 @@
         <v>1494</v>
       </c>
       <c r="I255" s="3" t="str">
-        <f>IF(G255=H255,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J255" s="75" t="str">
-        <f>B255&amp;"."&amp;C255</f>
+        <f t="shared" si="18"/>
         <v>6.21</v>
       </c>
       <c r="K255" s="3" t="s">
@@ -37363,7 +37236,7 @@
         <v>1775</v>
       </c>
       <c r="N255" s="3" t="str">
-        <f>M255&amp;" ("&amp;AU255&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&gt; 4 per home range (or less*) (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O255" s="74" t="s">
@@ -37450,11 +37323,11 @@
         <v>1493</v>
       </c>
       <c r="I256" s="3" t="str">
-        <f>IF(G256=H256,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>TRUE</v>
       </c>
       <c r="J256" s="75" t="str">
-        <f>B256&amp;"."&amp;C256</f>
+        <f t="shared" si="18"/>
         <v>6.22</v>
       </c>
       <c r="K256" s="3" t="s">
@@ -37465,7 +37338,7 @@
         <v>1269</v>
       </c>
       <c r="N256" s="3" t="str">
-        <f>M256&amp;" ("&amp;AU256&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>If used suggested 4 camera per home range, 40-120 (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O256" s="74" t="s">
@@ -37558,11 +37431,11 @@
         <v>1508</v>
       </c>
       <c r="I257" s="3" t="str">
-        <f>IF(G257=H257,"false","TRUE")</f>
+        <f t="shared" si="15"/>
         <v>false</v>
       </c>
       <c r="J257" s="4" t="str">
-        <f>B257&amp;"."&amp;C257</f>
+        <f t="shared" si="18"/>
         <v>6.24</v>
       </c>
       <c r="K257" s="3" t="s">
@@ -37573,7 +37446,7 @@
         <v>1899</v>
       </c>
       <c r="N257" s="3" t="str">
-        <f>M257&amp;" ("&amp;AU257&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O257" s="36" t="s">
@@ -37662,11 +37535,11 @@
         <v>1509</v>
       </c>
       <c r="I258" s="3" t="str">
-        <f>IF(G258=H258,"false","TRUE")</f>
+        <f t="shared" ref="I258:I321" si="19">IF(G258=H258,"false","TRUE")</f>
         <v>false</v>
       </c>
       <c r="J258" s="4" t="str">
-        <f>B258&amp;"."&amp;C258</f>
+        <f t="shared" si="18"/>
         <v>6.25</v>
       </c>
       <c r="K258" s="3" t="s">
@@ -37677,7 +37550,7 @@
         <v>339</v>
       </c>
       <c r="N258" s="3" t="str">
-        <f>M258&amp;" ("&amp;AU258&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O258" s="5" t="s">
@@ -37762,11 +37635,11 @@
         <v>1510</v>
       </c>
       <c r="I259" s="3" t="str">
-        <f>IF(G259=H259,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J259" s="4" t="str">
-        <f>B259&amp;"."&amp;C259</f>
+        <f t="shared" si="18"/>
         <v>6.26</v>
       </c>
       <c r="K259" s="3" t="s">
@@ -37777,7 +37650,7 @@
         <v>495</v>
       </c>
       <c r="N259" s="3" t="str">
-        <f>M259&amp;" ("&amp;AU259&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O259" s="5" t="s">
@@ -37864,11 +37737,11 @@
         <v>1511</v>
       </c>
       <c r="I260" s="3" t="str">
-        <f>IF(G260=H260,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J260" s="4" t="str">
-        <f>B260&amp;"."&amp;C260</f>
+        <f t="shared" si="18"/>
         <v>7.1</v>
       </c>
       <c r="K260" s="3" t="s">
@@ -37879,7 +37752,7 @@
         <v>165</v>
       </c>
       <c r="N260" s="3" t="str">
-        <f>M260&amp;" ("&amp;AU260&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Random with respect to activity centres (Sollmann et al., 2013b)</v>
       </c>
       <c r="O260" s="3" t="s">
@@ -37966,11 +37839,11 @@
         <v>1512</v>
       </c>
       <c r="I261" s="3" t="str">
-        <f>IF(G261=H261,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J261" s="4" t="str">
-        <f>B261&amp;"."&amp;C261</f>
+        <f t="shared" si="18"/>
         <v>7.2</v>
       </c>
       <c r="K261" s="3" t="s">
@@ -37981,7 +37854,7 @@
         <v>67</v>
       </c>
       <c r="N261" s="3" t="str">
-        <f>M261&amp;" ("&amp;AU261&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Systematic random (Clarke et al., 2023)</v>
       </c>
       <c r="O261" s="3" t="s">
@@ -38066,11 +37939,11 @@
         <v>1513</v>
       </c>
       <c r="I262" s="3" t="str">
-        <f>IF(G262=H262,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J262" s="4" t="str">
-        <f>B262&amp;"."&amp;C262</f>
+        <f t="shared" si="18"/>
         <v>7.3</v>
       </c>
       <c r="K262" s="3" t="s">
@@ -38081,7 +37954,7 @@
         <v>250</v>
       </c>
       <c r="N262" s="3" t="str">
-        <f>M262&amp;" ("&amp;AU262&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>Clustered (Clarke et al., 2023)</v>
       </c>
       <c r="O262" s="3" t="s">
@@ -38166,11 +38039,11 @@
         <v>1521</v>
       </c>
       <c r="I263" s="3" t="str">
-        <f>IF(G263=H263,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J263" s="4" t="str">
-        <f>B263&amp;"."&amp;C263</f>
+        <f t="shared" si="18"/>
         <v>7.4</v>
       </c>
       <c r="K263" s="3" t="s">
@@ -38181,7 +38054,7 @@
         <v>1759</v>
       </c>
       <c r="N263" s="3" t="str">
-        <f>M263&amp;" ("&amp;AU263&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>≥ 360 days (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O263" s="7" t="s">
@@ -38264,11 +38137,11 @@
         <v>1514</v>
       </c>
       <c r="I264" s="3" t="str">
-        <f>IF(G264=H264,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J264" s="4" t="str">
-        <f>B264&amp;"."&amp;C264</f>
+        <f t="shared" si="18"/>
         <v>7.5</v>
       </c>
       <c r="K264" s="3" t="s">
@@ -38279,7 +38152,7 @@
         <v>234</v>
       </c>
       <c r="N264" s="3" t="str">
-        <f>M264&amp;" ("&amp;AU264&amp;")"</f>
+        <f t="shared" ref="N264:N327" si="20">M264&amp;" ("&amp;AU264&amp;")"</f>
         <v>1-3 sigma (related to home range size) (Sun et al., 2014)</v>
       </c>
       <c r="O264" s="3" t="s">
@@ -38360,11 +38233,11 @@
         <v>1517</v>
       </c>
       <c r="I265" s="3" t="str">
-        <f>IF(G265=H265,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J265" s="4" t="str">
-        <f>B265&amp;"."&amp;C265</f>
+        <f t="shared" si="18"/>
         <v>7.6</v>
       </c>
       <c r="K265" s="3" t="s">
@@ -38375,7 +38248,7 @@
         <v>1901</v>
       </c>
       <c r="N265" s="3" t="str">
-        <f>M265&amp;" ("&amp;AU265&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 30 (precision is dependent on number of marked individuals in a population) (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O265" s="3" t="s">
@@ -38464,11 +38337,11 @@
         <v>1518</v>
       </c>
       <c r="I266" s="3" t="str">
-        <f>IF(G266=H266,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J266" s="4" t="str">
-        <f>B266&amp;"."&amp;C266</f>
+        <f t="shared" si="18"/>
         <v>7.7</v>
       </c>
       <c r="K266" s="3" t="s">
@@ -38479,7 +38352,7 @@
         <v>1739</v>
       </c>
       <c r="N266" s="3" t="str">
-        <f>M266&amp;" ("&amp;AU266&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>≥ 30 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O266" s="3" t="s">
@@ -38564,11 +38437,11 @@
         <v>1519</v>
       </c>
       <c r="I267" s="3" t="str">
-        <f>IF(G267=H267,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J267" s="4" t="str">
-        <f>B267&amp;"."&amp;C267</f>
+        <f t="shared" si="18"/>
         <v>7.8</v>
       </c>
       <c r="K267" s="3" t="s">
@@ -38579,7 +38452,7 @@
         <v>1758</v>
       </c>
       <c r="N267" s="3" t="str">
-        <f>M267&amp;" ("&amp;AU267&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&gt; 60 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O267" s="3" t="s">
@@ -38664,11 +38537,11 @@
         <v>1520</v>
       </c>
       <c r="I268" s="3" t="str">
-        <f>IF(G268=H268,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J268" s="4" t="str">
-        <f>B268&amp;"."&amp;C268</f>
+        <f t="shared" ref="J268:J299" si="21">B268&amp;"."&amp;C268</f>
         <v>7.9</v>
       </c>
       <c r="K268" s="3" t="s">
@@ -38679,7 +38552,7 @@
         <v>1756</v>
       </c>
       <c r="N268" s="3" t="str">
-        <f>M268&amp;" ("&amp;AU268&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&gt; 60-120 (Tobler &amp; Powell, 2013; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O268" s="3" t="s">
@@ -38764,11 +38637,11 @@
         <v>1515</v>
       </c>
       <c r="I269" s="3" t="str">
-        <f>IF(G269=H269,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J269" s="4" t="str">
-        <f>B269&amp;"."&amp;C269</f>
+        <f t="shared" si="21"/>
         <v>7.10</v>
       </c>
       <c r="K269" s="3" t="s">
@@ -38779,7 +38652,7 @@
         <v>1900</v>
       </c>
       <c r="N269" s="3" t="str">
-        <f>M269&amp;" ("&amp;AU269&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 30 (minumum)&lt;/b&gt; (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O269" s="5" t="s">
@@ -38868,11 +38741,11 @@
         <v>1516</v>
       </c>
       <c r="I270" s="3" t="str">
-        <f>IF(G270=H270,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J270" s="4" t="str">
-        <f>B270&amp;"."&amp;C270</f>
+        <f t="shared" si="21"/>
         <v>7.11</v>
       </c>
       <c r="K270" s="3" t="s">
@@ -38883,7 +38756,7 @@
         <v>706</v>
       </c>
       <c r="N270" s="3" t="str">
-        <f>M270&amp;" ("&amp;AU270&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally 60 (but will depend on detection probability and resight data) (Burgar, 2021; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O270" s="5" t="s">
@@ -38970,11 +38843,11 @@
         <v>1522</v>
       </c>
       <c r="I271" s="3" t="str">
-        <f>IF(G271=H271,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J271" s="4" t="str">
-        <f>B271&amp;"."&amp;C271</f>
+        <f t="shared" si="21"/>
         <v>7.12</v>
       </c>
       <c r="K271" s="3" t="s">
@@ -38985,7 +38858,7 @@
         <v>1899</v>
       </c>
       <c r="N271" s="3" t="str">
-        <f>M271&amp;" ("&amp;AU271&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 1 month per survey (presuming multiple surveys completed) (minumum)&lt;/b&gt; (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O271" s="36" t="s">
@@ -39074,11 +38947,11 @@
         <v>1523</v>
       </c>
       <c r="I272" s="3" t="str">
-        <f>IF(G272=H272,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J272" s="4" t="str">
-        <f>B272&amp;"."&amp;C272</f>
+        <f t="shared" si="21"/>
         <v>7.13</v>
       </c>
       <c r="K272" s="3" t="s">
@@ -39089,7 +38962,7 @@
         <v>339</v>
       </c>
       <c r="N272" s="3" t="str">
-        <f>M272&amp;" ("&amp;AU272&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &gt; 12 months (based on minimum for SCR) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O272" s="5" t="s">
@@ -39174,11 +39047,11 @@
         <v>1524</v>
       </c>
       <c r="I273" s="3" t="str">
-        <f>IF(G273=H273,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J273" s="4" t="str">
-        <f>B273&amp;"."&amp;C273</f>
+        <f t="shared" si="21"/>
         <v>7.14</v>
       </c>
       <c r="K273" s="3" t="s">
@@ -39189,7 +39062,7 @@
         <v>495</v>
       </c>
       <c r="N273" s="3" t="str">
-        <f>M273&amp;" ("&amp;AU273&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally 1-3 months (depending on time required to maximize detections while minimizing the violation of "population closure" assumption) (Burgar et al., 2018; Burgar, personal communication, April 23, 2023)</v>
       </c>
       <c r="O273" s="5" t="s">
@@ -39276,11 +39149,11 @@
         <v>1677</v>
       </c>
       <c r="I274" s="3" t="str">
-        <f>IF(G274=H274,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J274" s="4" t="str">
-        <f>B274&amp;"."&amp;C274</f>
+        <f t="shared" si="21"/>
         <v>16.1</v>
       </c>
       <c r="K274" s="3" t="s">
@@ -39291,7 +39164,7 @@
         <v>153</v>
       </c>
       <c r="N274" s="3" t="str">
-        <f>M274&amp;" ("&amp;AU274&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="O274" s="3" t="s">
@@ -39378,11 +39251,11 @@
         <v>1678</v>
       </c>
       <c r="I275" s="3" t="str">
-        <f>IF(G275=H275,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J275" s="4" t="str">
-        <f>B275&amp;"."&amp;C275</f>
+        <f t="shared" si="21"/>
         <v>16.2</v>
       </c>
       <c r="K275" s="3" t="s">
@@ -39393,7 +39266,7 @@
         <v>95</v>
       </c>
       <c r="N275" s="3" t="str">
-        <f>M275&amp;" ("&amp;AU275&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="O275" s="3" t="s">
@@ -39478,11 +39351,11 @@
         <v>1679</v>
       </c>
       <c r="I276" s="3" t="str">
-        <f>IF(G276=H276,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J276" s="4" t="str">
-        <f>B276&amp;"."&amp;C276</f>
+        <f t="shared" si="21"/>
         <v>16.3</v>
       </c>
       <c r="K276" s="3" t="s">
@@ -39493,7 +39366,7 @@
         <v>67</v>
       </c>
       <c r="N276" s="3" t="str">
-        <f>M276&amp;" ("&amp;AU276&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="O276" s="3" t="s">
@@ -39578,11 +39451,11 @@
         <v>1685</v>
       </c>
       <c r="I277" s="3" t="str">
-        <f>IF(G277=H277,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J277" s="4" t="str">
-        <f>B277&amp;"."&amp;C277</f>
+        <f t="shared" si="21"/>
         <v>16.4</v>
       </c>
       <c r="K277" s="3" t="s">
@@ -39593,7 +39466,7 @@
         <v>637</v>
       </c>
       <c r="N277" s="3" t="str">
-        <f>M277&amp;" ("&amp;AU277&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="O277" s="7" t="s">
@@ -39678,11 +39551,11 @@
         <v>1680</v>
       </c>
       <c r="I278" s="3" t="str">
-        <f>IF(G278=H278,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J278" s="4" t="str">
-        <f>B278&amp;"."&amp;C278</f>
+        <f t="shared" si="21"/>
         <v>16.5</v>
       </c>
       <c r="K278" s="3" t="s">
@@ -39693,7 +39566,7 @@
         <v>1842</v>
       </c>
       <c r="N278" s="3" t="str">
-        <f>M278&amp;" ("&amp;AU278&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>No requirements (uses instantaneous snapshots) (Moeller et al., 2018)</v>
       </c>
       <c r="O278" s="3" t="s">
@@ -39778,11 +39651,11 @@
         <v>1684</v>
       </c>
       <c r="I279" s="3" t="str">
-        <f>IF(G279=H279,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J279" s="4" t="str">
-        <f>B279&amp;"."&amp;C279</f>
+        <f t="shared" si="21"/>
         <v>16.6</v>
       </c>
       <c r="K279" s="3" t="s">
@@ -39793,7 +39666,7 @@
         <v>1895</v>
       </c>
       <c r="N279" s="3" t="str">
-        <f>M279&amp;" ("&amp;AU279&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="O279" s="3" t="s">
@@ -39880,11 +39753,11 @@
         <v>1681</v>
       </c>
       <c r="I280" s="3" t="str">
-        <f>IF(G280=H280,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J280" s="4" t="str">
-        <f>B280&amp;"."&amp;C280</f>
+        <f t="shared" si="21"/>
         <v>16.7</v>
       </c>
       <c r="K280" s="3" t="s">
@@ -39895,7 +39768,7 @@
         <v>1840</v>
       </c>
       <c r="N280" s="3" t="str">
-        <f>M280&amp;" ("&amp;AU280&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="O280" s="5" t="s">
@@ -39982,11 +39855,11 @@
         <v>1682</v>
       </c>
       <c r="I281" s="3" t="str">
-        <f>IF(G281=H281,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J281" s="4" t="str">
-        <f>B281&amp;"."&amp;C281</f>
+        <f t="shared" si="21"/>
         <v>16.8</v>
       </c>
       <c r="K281" s="3" t="s">
@@ -39997,7 +39870,7 @@
         <v>1894</v>
       </c>
       <c r="N281" s="3" t="str">
-        <f>M281&amp;" ("&amp;AU281&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="O281" s="5" t="s">
@@ -40086,11 +39959,11 @@
         <v>1683</v>
       </c>
       <c r="I282" s="3" t="str">
-        <f>IF(G282=H282,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J282" s="4" t="str">
-        <f>B282&amp;"."&amp;C282</f>
+        <f t="shared" si="21"/>
         <v>16.9</v>
       </c>
       <c r="K282" s="3" t="s">
@@ -40101,7 +39974,7 @@
         <v>279</v>
       </c>
       <c r="N282" s="3" t="str">
-        <f>M282&amp;" ("&amp;AU282&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="O282" s="5" t="s">
@@ -40186,11 +40059,11 @@
         <v>1686</v>
       </c>
       <c r="I283" s="3" t="str">
-        <f>IF(G283=H283,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J283" s="4" t="str">
-        <f>B283&amp;"."&amp;C283</f>
+        <f t="shared" si="21"/>
         <v>16.10</v>
       </c>
       <c r="K283" s="3" t="s">
@@ -40201,7 +40074,7 @@
         <v>1843</v>
       </c>
       <c r="N283" s="3" t="str">
-        <f>M283&amp;" ("&amp;AU283&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="O283" s="5" t="s">
@@ -40286,11 +40159,11 @@
         <v>1635</v>
       </c>
       <c r="I284" s="3" t="str">
-        <f>IF(G284=H284,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J284" s="4" t="str">
-        <f>B284&amp;"."&amp;C284</f>
+        <f t="shared" si="21"/>
         <v>13.1</v>
       </c>
       <c r="K284" s="3" t="s">
@@ -40301,7 +40174,7 @@
         <v>128</v>
       </c>
       <c r="N284" s="3" t="str">
-        <f>M284&amp;" ("&amp;AU284&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Random or stratified random (representative) with respect to movement (Becker et al., 2022)</v>
       </c>
       <c r="O284" s="3" t="s">
@@ -40388,11 +40261,11 @@
         <v>1636</v>
       </c>
       <c r="I285" s="3" t="str">
-        <f>IF(G285=H285,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J285" s="4" t="str">
-        <f>B285&amp;"."&amp;C285</f>
+        <f t="shared" si="21"/>
         <v>13.2</v>
       </c>
       <c r="K285" s="3" t="s">
@@ -40403,7 +40276,7 @@
         <v>128</v>
       </c>
       <c r="N285" s="3" t="str">
-        <f>M285&amp;" ("&amp;AU285&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Random or stratified random (representative) with respect to movement (Becker et al., 2022)</v>
       </c>
       <c r="O285" s="3" t="s">
@@ -40490,11 +40363,11 @@
         <v>1655</v>
       </c>
       <c r="I286" s="3" t="str">
-        <f>IF(G286=H286,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J286" s="4" t="str">
-        <f>B286&amp;"."&amp;C286</f>
+        <f t="shared" si="21"/>
         <v>13.8</v>
       </c>
       <c r="K286" s="3" t="s">
@@ -40505,7 +40378,7 @@
         <v>1848</v>
       </c>
       <c r="N286" s="3" t="str">
-        <f>M286&amp;" ("&amp;AU286&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O286" s="7" t="s">
@@ -40592,11 +40465,11 @@
         <v>1650</v>
       </c>
       <c r="I287" s="3" t="str">
-        <f>IF(G287=H287,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J287" s="4" t="str">
-        <f>B287&amp;"."&amp;C287</f>
+        <f t="shared" si="21"/>
         <v>13.3</v>
       </c>
       <c r="K287" s="3" t="s">
@@ -40607,7 +40480,7 @@
         <v>1898</v>
       </c>
       <c r="N287" s="3" t="str">
-        <f>M287&amp;" ("&amp;AU287&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 10 detections (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O287" s="7" t="s">
@@ -40700,11 +40573,11 @@
         <v>1651</v>
       </c>
       <c r="I288" s="3" t="str">
-        <f>IF(G288=H288,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J288" s="4" t="str">
-        <f>B288&amp;"."&amp;C288</f>
+        <f t="shared" si="21"/>
         <v>13.4</v>
       </c>
       <c r="K288" s="3" t="s">
@@ -40715,7 +40588,7 @@
         <v>626</v>
       </c>
       <c r="N288" s="3" t="str">
-        <f>M288&amp;" ("&amp;AU288&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &gt; 20 detections (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O288" s="7" t="s">
@@ -40806,11 +40679,11 @@
         <v>1652</v>
       </c>
       <c r="I289" s="3" t="str">
-        <f>IF(G289=H289,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J289" s="4" t="str">
-        <f>B289&amp;"."&amp;C289</f>
+        <f t="shared" si="21"/>
         <v>13.5</v>
       </c>
       <c r="K289" s="3" t="s">
@@ -40821,7 +40694,7 @@
         <v>1852</v>
       </c>
       <c r="N289" s="3" t="str">
-        <f>M289&amp;" ("&amp;AU289&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Often 2000 (REM: Rowcliffe et al., 2008; Rovero et al., 2013)</v>
       </c>
       <c r="O289" s="7" t="s">
@@ -40908,11 +40781,11 @@
         <v>1653</v>
       </c>
       <c r="I290" s="3" t="str">
-        <f>IF(G290=H290,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J290" s="4" t="str">
-        <f>B290&amp;"."&amp;C290</f>
+        <f t="shared" si="21"/>
         <v>13.6</v>
       </c>
       <c r="K290" s="3" t="s">
@@ -40923,7 +40796,7 @@
         <v>1851</v>
       </c>
       <c r="N290" s="3" t="str">
-        <f>M290&amp;" ("&amp;AU290&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>1000-10000 (REM: Rowcliffe et al., 2016)</v>
       </c>
       <c r="O290" s="7" t="s">
@@ -41008,11 +40881,11 @@
         <v>1654</v>
       </c>
       <c r="I291" s="3" t="str">
-        <f>IF(G291=H291,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J291" s="4" t="str">
-        <f>B291&amp;"."&amp;C291</f>
+        <f t="shared" si="21"/>
         <v>13.7</v>
       </c>
       <c r="K291" s="3" t="s">
@@ -41023,7 +40896,7 @@
         <v>1799</v>
       </c>
       <c r="N291" s="3" t="str">
-        <f>M291&amp;" ("&amp;AU291&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&gt; 2000 (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O291" s="7" t="s">
@@ -41114,11 +40987,11 @@
         <v>1643</v>
       </c>
       <c r="I292" s="3" t="str">
-        <f>IF(G292=H292,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J292" s="4" t="str">
-        <f>B292&amp;"."&amp;C292</f>
+        <f t="shared" si="21"/>
         <v>13.15</v>
       </c>
       <c r="K292" s="3" t="s">
@@ -41129,7 +41002,7 @@
         <v>1848</v>
       </c>
       <c r="N292" s="3" t="str">
-        <f>M292&amp;" ("&amp;AU292&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O292" s="3" t="s">
@@ -41216,11 +41089,11 @@
         <v>1637</v>
       </c>
       <c r="I293" s="3" t="str">
-        <f>IF(G293=H293,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J293" s="4" t="str">
-        <f>B293&amp;"."&amp;C293</f>
+        <f t="shared" si="21"/>
         <v>13.9</v>
       </c>
       <c r="K293" s="3" t="s">
@@ -41231,7 +41104,7 @@
         <v>1895</v>
       </c>
       <c r="N293" s="3" t="str">
-        <f>M293&amp;" ("&amp;AU293&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O293" s="3" t="s">
@@ -41320,11 +41193,11 @@
         <v>1638</v>
       </c>
       <c r="I294" s="3" t="str">
-        <f>IF(G294=H294,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J294" s="4" t="str">
-        <f>B294&amp;"."&amp;C294</f>
+        <f t="shared" si="21"/>
         <v>13.10</v>
       </c>
       <c r="K294" s="3" t="s">
@@ -41335,7 +41208,7 @@
         <v>1792</v>
       </c>
       <c r="N294" s="3" t="str">
-        <f>M294&amp;" ("&amp;AU294&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally ≥ 1 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O294" s="3" t="s">
@@ -41422,11 +41295,11 @@
         <v>1639</v>
       </c>
       <c r="I295" s="3" t="str">
-        <f>IF(G295=H295,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J295" s="4" t="str">
-        <f>B295&amp;"."&amp;C295</f>
+        <f t="shared" si="21"/>
         <v>13.11</v>
       </c>
       <c r="K295" s="3" t="s">
@@ -41437,7 +41310,7 @@
         <v>654</v>
       </c>
       <c r="N295" s="3" t="str">
-        <f>M295&amp;" ("&amp;AU295&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Spatially independent (Rowcliffe et al., 2013)</v>
       </c>
       <c r="O295" s="3" t="s">
@@ -41526,11 +41399,11 @@
         <v>1640</v>
       </c>
       <c r="I296" s="3" t="str">
-        <f>IF(G296=H296,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J296" s="4" t="str">
-        <f>B296&amp;"."&amp;C296</f>
+        <f t="shared" si="21"/>
         <v>13.12</v>
       </c>
       <c r="K296" s="3" t="s">
@@ -41541,7 +41414,7 @@
         <v>271</v>
       </c>
       <c r="N296" s="3" t="str">
-        <f>M296&amp;" ("&amp;AU296&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&gt; home range diameter (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O296" s="3" t="s">
@@ -41628,11 +41501,11 @@
         <v>1641</v>
       </c>
       <c r="I297" s="3" t="str">
-        <f>IF(G297=H297,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J297" s="4" t="str">
-        <f>B297&amp;"."&amp;C297</f>
+        <f t="shared" si="21"/>
         <v>13.13</v>
       </c>
       <c r="K297" s="3" t="s">
@@ -41643,7 +41516,7 @@
         <v>1860</v>
       </c>
       <c r="N297" s="3" t="str">
-        <f>M297&amp;" ("&amp;AU297&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>1-2 km (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O297" s="3" t="s">
@@ -41732,11 +41605,11 @@
         <v>1642</v>
       </c>
       <c r="I298" s="3" t="str">
-        <f>IF(G298=H298,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J298" s="4" t="str">
-        <f>B298&amp;"."&amp;C298</f>
+        <f t="shared" si="21"/>
         <v>13.14</v>
       </c>
       <c r="K298" s="3" t="s">
@@ -41747,7 +41620,7 @@
         <v>1858</v>
       </c>
       <c r="N298" s="3" t="str">
-        <f>M298&amp;" ("&amp;AU298&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>1-2 km or closer (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O298" s="3" t="s">
@@ -41836,11 +41709,11 @@
         <v>1648</v>
       </c>
       <c r="I299" s="3" t="str">
-        <f>IF(G299=H299,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J299" s="4" t="str">
-        <f>B299&amp;"."&amp;C299</f>
+        <f t="shared" si="21"/>
         <v>13.16</v>
       </c>
       <c r="K299" s="3" t="s">
@@ -41851,7 +41724,7 @@
         <v>1895</v>
       </c>
       <c r="N299" s="3" t="str">
-        <f>M299&amp;" ("&amp;AU299&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O299" s="3" t="s">
@@ -41938,11 +41811,11 @@
         <v>1649</v>
       </c>
       <c r="I300" s="3" t="str">
-        <f>IF(G300=H300,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J300" s="4" t="str">
-        <f>B300&amp;"."&amp;C300</f>
+        <f t="shared" ref="J300:J317" si="22">B300&amp;"."&amp;C300</f>
         <v>13.17</v>
       </c>
       <c r="K300" s="3" t="s">
@@ -41953,7 +41826,7 @@
         <v>1791</v>
       </c>
       <c r="N300" s="3" t="str">
-        <f>M300&amp;" ("&amp;AU300&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally ≥ 30 (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O300" s="3" t="s">
@@ -42038,11 +41911,11 @@
         <v>1647</v>
       </c>
       <c r="I301" s="3" t="str">
-        <f>IF(G301=H301,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J301" s="4" t="str">
-        <f>B301&amp;"."&amp;C301</f>
+        <f t="shared" si="22"/>
         <v>13.21</v>
       </c>
       <c r="K301" s="3" t="s">
@@ -42053,7 +41926,7 @@
         <v>1848</v>
       </c>
       <c r="N301" s="3" t="str">
-        <f>M301&amp;" ("&amp;AU301&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Note: these recommendations are the same as REM (Becker et al., 2022; Moeller et al., 2023)</v>
       </c>
       <c r="O301" s="5" t="s">
@@ -42140,11 +42013,11 @@
         <v>1644</v>
       </c>
       <c r="I302" s="3" t="str">
-        <f>IF(G302=H302,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J302" s="4" t="str">
-        <f>B302&amp;"."&amp;C302</f>
+        <f t="shared" si="22"/>
         <v>13.18</v>
       </c>
       <c r="K302" s="3" t="s">
@@ -42155,7 +42028,7 @@
         <v>1894</v>
       </c>
       <c r="N302" s="3" t="str">
-        <f>M302&amp;" ("&amp;AU302&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O302" s="5" t="s">
@@ -42246,11 +42119,11 @@
         <v>1645</v>
       </c>
       <c r="I303" s="3" t="str">
-        <f>IF(G303=H303,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J303" s="4" t="str">
-        <f>B303&amp;"."&amp;C303</f>
+        <f t="shared" si="22"/>
         <v>13.19</v>
       </c>
       <c r="K303" s="3" t="s">
@@ -42261,7 +42134,7 @@
         <v>279</v>
       </c>
       <c r="N303" s="3" t="str">
-        <f>M303&amp;" ("&amp;AU303&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &gt; 50 (REM: Rowcliffe et al., 2008; Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O303" s="5" t="s">
@@ -42348,11 +42221,11 @@
         <v>1646</v>
       </c>
       <c r="I304" s="3" t="str">
-        <f>IF(G304=H304,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J304" s="4" t="str">
-        <f>B304&amp;"."&amp;C304</f>
+        <f t="shared" si="22"/>
         <v>13.20</v>
       </c>
       <c r="K304" s="3" t="s">
@@ -42363,7 +42236,7 @@
         <v>643</v>
       </c>
       <c r="N304" s="3" t="str">
-        <f>M304&amp;" ("&amp;AU304&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Dependent on species' density (REM: Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O304" s="5" t="s">
@@ -42452,11 +42325,11 @@
         <v>1656</v>
       </c>
       <c r="I305" s="3" t="str">
-        <f>IF(G305=H305,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J305" s="4" t="str">
-        <f>B305&amp;"."&amp;C305</f>
+        <f t="shared" si="22"/>
         <v>13.22</v>
       </c>
       <c r="K305" s="3" t="s">
@@ -42467,7 +42340,7 @@
         <v>584</v>
       </c>
       <c r="N305" s="3" t="str">
-        <f>M305&amp;" ("&amp;AU305&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &lt; 12 months (Wearn &amp; Glover-Kapfer, 2017)</v>
       </c>
       <c r="O305" s="5" t="s">
@@ -42554,11 +42427,11 @@
         <v>1657</v>
       </c>
       <c r="I306" s="3" t="str">
-        <f>IF(G306=H306,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J306" s="4" t="str">
-        <f>B306&amp;"."&amp;C306</f>
+        <f t="shared" si="22"/>
         <v>13.23</v>
       </c>
       <c r="K306" s="3" t="s">
@@ -42569,7 +42442,7 @@
         <v>1896</v>
       </c>
       <c r="N306" s="3" t="str">
-        <f>M306&amp;" ("&amp;AU306&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="O306" s="5" t="s">
@@ -42658,11 +42531,11 @@
         <v>1855</v>
       </c>
       <c r="I307" s="3" t="str">
-        <f>IF(G307=H307,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>TRUE</v>
       </c>
       <c r="J307" s="4" t="str">
-        <f>B307&amp;"."&amp;C307</f>
+        <f t="shared" si="22"/>
         <v>13.24</v>
       </c>
       <c r="K307" s="3" t="s">
@@ -42673,7 +42546,7 @@
         <v>1896</v>
       </c>
       <c r="N307" s="3" t="str">
-        <f>M307&amp;" ("&amp;AU307&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No maximum&lt;/b&gt; (Rowcliffe et al., 2008)</v>
       </c>
       <c r="O307" s="5" t="s">
@@ -42762,11 +42635,11 @@
         <v>1667</v>
       </c>
       <c r="I308" s="3" t="str">
-        <f>IF(G308=H308,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J308" s="4" t="str">
-        <f>B308&amp;"."&amp;C308</f>
+        <f t="shared" si="22"/>
         <v>15.1</v>
       </c>
       <c r="K308" s="3" t="s">
@@ -42777,7 +42650,7 @@
         <v>153</v>
       </c>
       <c r="N308" s="3" t="str">
-        <f>M308&amp;" ("&amp;AU308&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Random with respect to movement (Loonam et al., 2021)</v>
       </c>
       <c r="O308" s="3" t="s">
@@ -42864,11 +42737,11 @@
         <v>1668</v>
       </c>
       <c r="I309" s="3" t="str">
-        <f>IF(G309=H309,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J309" s="4" t="str">
-        <f>B309&amp;"."&amp;C309</f>
+        <f t="shared" si="22"/>
         <v>15.2</v>
       </c>
       <c r="K309" s="3" t="s">
@@ -42879,7 +42752,7 @@
         <v>95</v>
       </c>
       <c r="N309" s="3" t="str">
-        <f>M309&amp;" ("&amp;AU309&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Systematic (Loonam et al., 2021)</v>
       </c>
       <c r="O309" s="3" t="s">
@@ -42964,11 +42837,11 @@
         <v>1669</v>
       </c>
       <c r="I310" s="3" t="str">
-        <f>IF(G310=H310,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J310" s="4" t="str">
-        <f>B310&amp;"."&amp;C310</f>
+        <f t="shared" si="22"/>
         <v>15.3</v>
       </c>
       <c r="K310" s="3" t="s">
@@ -42979,7 +42852,7 @@
         <v>67</v>
       </c>
       <c r="N310" s="3" t="str">
-        <f>M310&amp;" ("&amp;AU310&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Systematic random (Loonam et al., 2021)</v>
       </c>
       <c r="O310" s="3" t="s">
@@ -43064,11 +42937,11 @@
         <v>1675</v>
       </c>
       <c r="I311" s="3" t="str">
-        <f>IF(G311=H311,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J311" s="4" t="str">
-        <f>B311&amp;"."&amp;C311</f>
+        <f t="shared" si="22"/>
         <v>15.4</v>
       </c>
       <c r="K311" s="3" t="s">
@@ -43079,7 +42952,7 @@
         <v>637</v>
       </c>
       <c r="N311" s="3" t="str">
-        <f>M311&amp;" ("&amp;AU311&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Dependent on species density and distribution (e.g., more cameras with lower density and more clumped distribution) (Moeller et al., 2018)</v>
       </c>
       <c r="O311" s="7" t="s">
@@ -43164,11 +43037,11 @@
         <v>1670</v>
       </c>
       <c r="I312" s="3" t="str">
-        <f>IF(G312=H312,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J312" s="4" t="str">
-        <f>B312&amp;"."&amp;C312</f>
+        <f t="shared" si="22"/>
         <v>15.5</v>
       </c>
       <c r="K312" s="3" t="s">
@@ -43179,7 +43052,7 @@
         <v>1895</v>
       </c>
       <c r="N312" s="3" t="str">
-        <f>M312&amp;" ("&amp;AU312&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="O312" s="3" t="s">
@@ -43268,11 +43141,11 @@
         <v>1674</v>
       </c>
       <c r="I313" s="3" t="str">
-        <f>IF(G313=H313,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J313" s="4" t="str">
-        <f>B313&amp;"."&amp;C313</f>
+        <f t="shared" si="22"/>
         <v>15.6</v>
       </c>
       <c r="K313" s="3" t="s">
@@ -43283,7 +43156,7 @@
         <v>1895</v>
       </c>
       <c r="N313" s="3" t="str">
-        <f>M313&amp;" ("&amp;AU313&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;No minimum&lt;/b&gt; (Howe et al., 2017)</v>
       </c>
       <c r="O313" s="3" t="s">
@@ -43370,11 +43243,11 @@
         <v>1671</v>
       </c>
       <c r="I314" s="3" t="str">
-        <f>IF(G314=H314,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J314" s="4" t="str">
-        <f>B314&amp;"."&amp;C314</f>
+        <f t="shared" si="22"/>
         <v>15.7</v>
       </c>
       <c r="K314" s="3" t="s">
@@ -43385,7 +43258,7 @@
         <v>1840</v>
       </c>
       <c r="N314" s="3" t="str">
-        <f>M314&amp;" ("&amp;AU314&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Dependent on species' density and distribution (e.g., more cameras with lower density and more clumped distribution) (Howe et al., 2017)</v>
       </c>
       <c r="O314" s="5" t="s">
@@ -43472,11 +43345,11 @@
         <v>1672</v>
       </c>
       <c r="I315" s="3" t="str">
-        <f>IF(G315=H315,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J315" s="4" t="str">
-        <f>B315&amp;"."&amp;C315</f>
+        <f t="shared" si="22"/>
         <v>15.8</v>
       </c>
       <c r="K315" s="3" t="s">
@@ -43487,7 +43360,7 @@
         <v>1894</v>
       </c>
       <c r="N315" s="3" t="str">
-        <f>M315&amp;" ("&amp;AU315&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>&lt;b&gt;≥ 20 (minumum)&lt;/b&gt; (Moeller et al., 2018)</v>
       </c>
       <c r="O315" s="5" t="s">
@@ -43576,11 +43449,11 @@
         <v>1673</v>
       </c>
       <c r="I316" s="3" t="str">
-        <f>IF(G316=H316,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J316" s="4" t="str">
-        <f>B316&amp;"."&amp;C316</f>
+        <f t="shared" si="22"/>
         <v>15.9</v>
       </c>
       <c r="K316" s="3" t="s">
@@ -43591,7 +43464,7 @@
         <v>279</v>
       </c>
       <c r="N316" s="3" t="str">
-        <f>M316&amp;" ("&amp;AU316&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>Ideally &gt; 50 (Moeller et al., 2018)</v>
       </c>
       <c r="O316" s="5" t="s">
@@ -43676,11 +43549,11 @@
         <v>1676</v>
       </c>
       <c r="I317" s="3" t="str">
-        <f>IF(G317=H317,"false","TRUE")</f>
+        <f t="shared" si="19"/>
         <v>false</v>
       </c>
       <c r="J317" s="4" t="str">
-        <f>B317&amp;"."&amp;C317</f>
+        <f t="shared" si="22"/>
         <v>15.10</v>
       </c>
       <c r="K317" s="3" t="s">
@@ -43691,7 +43564,7 @@
         <v>1843</v>
       </c>
       <c r="N317" s="3" t="str">
-        <f>M317&amp;" ("&amp;AU317&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>No requirements (Moeller et al., 2018)</v>
       </c>
       <c r="O317" s="5" t="s">
@@ -44433,353 +44306,298 @@
       <sortCondition ref="L1:L317"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="H314:H317 E3:H313 E1:K2 O1:V313 I3:K317 L1:M317">
-    <cfRule type="containsText" dxfId="147" priority="78" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(E1))))</formula>
+  <conditionalFormatting sqref="E3:H317">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="9" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="11" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="14" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O30 O247:O313 AU3:AU37 AT54:AT313 AU247:AU313 D106:E158 G106:G158 P106:R155 P190:R213 P215:R215 P218:R222 P285:R285 M106:M155 M190:M213 M215 M218:M222 M285 AW1:AW317 AV2:AV313 K20:L59">
-    <cfRule type="cellIs" dxfId="146" priority="84" operator="equal">
+  <conditionalFormatting sqref="E1:K2 O1:V313 L1:M317 I3:K317">
+    <cfRule type="containsText" dxfId="126" priority="80" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="79" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="83" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="82" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="81" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="121" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:L1">
+    <cfRule type="containsText" dxfId="120" priority="45" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(K1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="40" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(K1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="41" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(K1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="42" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(K1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="43" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(K1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="44" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(K1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K156:L1048576 K20:L88 O31 K90:L92 S221:U222">
+    <cfRule type="containsText" dxfId="114" priority="72" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K288:L289 T288:U289">
+    <cfRule type="containsText" dxfId="113" priority="56" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(K288))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="59" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(K288))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="58" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(K288))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="57" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(K288))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="55" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(K288))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="54" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(K288))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="containsText" dxfId="107" priority="6" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",L1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
+      <formula>"min"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L88 K1:K1048576 T5 L90:L1048576">
+    <cfRule type="containsText" dxfId="105" priority="53" operator="containsText" text="sp_occ_restr">
+      <formula>NOT(ISERROR(SEARCH("sp_occ_restr",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L7">
+    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",L5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L227">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>"min"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M313 P1:R313 K2:K317 L2:L59 T5:U5 L93:L155 L163 V1:V195 AT1:AT49 AR50:AT313 V241:V262">
+    <cfRule type="cellIs" dxfId="102" priority="65" operator="equal">
+      <formula>"min"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576 P1:R1048576">
+    <cfRule type="containsText" dxfId="101" priority="64" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="containsText" dxfId="100" priority="4" operator="containsText" text="home range">
+      <formula>NOT(ISERROR(SEARCH("home range",M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M62 P62:R62">
+    <cfRule type="containsText" dxfId="99" priority="61" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",M62)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
+      <formula>"min"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="63" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",M62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O30 K20:L59 M106:M155 P106:R155 M190:M213 P190:R213 M215 P215:R215 M218:M222 P218:R222 O247:O313 M285 P285:R285 D106:E158 G106:G158 AW1:AW317 AU3:AU37 AT54:AT313 AU247:AU313">
+    <cfRule type="cellIs" dxfId="96" priority="84" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576 S1:S1048576">
-    <cfRule type="containsText" dxfId="145" priority="35" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="95" priority="35" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31 S221:U222 K156:L1048576 K90:L92 K20:L88">
-    <cfRule type="containsText" dxfId="144" priority="72" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",K20)))</formula>
+  <conditionalFormatting sqref="O1:O1048576 S1:U1048576 K1:M1 L1:L88 M299:M300 L90:L1048576 K1:K1048576 P299:R300">
+    <cfRule type="containsText" dxfId="94" priority="38" operator="containsText" text="Note: these recommendations ">
+      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O38">
-    <cfRule type="cellIs" dxfId="143" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="73" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O38 O1:O30 O40:O42 O44:O59 O61:O313">
-    <cfRule type="containsText" dxfId="142" priority="74" operator="containsText" text="stratified">
+    <cfRule type="containsText" dxfId="92" priority="74" operator="containsText" text="stratified">
       <formula>NOT(ISERROR(SEARCH(("stratified"),(O1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="containsText" dxfId="141" priority="70" operator="containsText" text="hr_size">
+    <cfRule type="cellIs" dxfId="91" priority="71" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="70" operator="containsText" text="hr_size">
       <formula>NOT(ISERROR(SEARCH("hr_size",O39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="71" operator="equal">
-      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:O58 AU1:AV2">
-    <cfRule type="cellIs" dxfId="139" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="containsText" dxfId="138" priority="69" operator="containsText" text="hr_size">
+    <cfRule type="containsText" dxfId="88" priority="69" operator="containsText" text="hr_size">
       <formula>NOT(ISERROR(SEARCH("hr_size",O43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="containsText" dxfId="137" priority="27" operator="containsText" text="null">
-      <formula>NOT(ISERROR(SEARCH("null",O60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="28" operator="containsText" text="Note: these recommendations ">
+    <cfRule type="containsText" dxfId="87" priority="28" operator="containsText" text="Note: these recommendations ">
       <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",O60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="29" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="86" priority="32" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(O60))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="34" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(O60))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="33" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(O60))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(O60))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="30" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(O60))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(O60))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="30" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(O60))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="31" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(O60))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="32" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(O60))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="33" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(O60))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="34" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(O60))))</formula>
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="null">
+      <formula>NOT(ISERROR(SEARCH("null",O60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O106:O158">
-    <cfRule type="cellIs" dxfId="129" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O176">
-    <cfRule type="cellIs" dxfId="128" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V195 AT1:AT49 AR50:AT313 V241:V262 P1:R313 T5:U5 M1:M313 L93:L155 L163 K2:K317 L2:L59">
-    <cfRule type="cellIs" dxfId="127" priority="65" operator="equal">
+  <conditionalFormatting sqref="O221:O222 AR1:AS49">
+    <cfRule type="containsText" dxfId="77" priority="66" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:V313 L1:M317 I3:K317 E1:K2">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(E1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:XFD1 O1:Q1 A1:M1">
+    <cfRule type="duplicateValues" dxfId="75" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1">
+    <cfRule type="containsText" dxfId="74" priority="37" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",V1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="36" operator="containsText" text="Note: these recommendations ">
+      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V196:V240 V267:V268">
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="stratified">
+      <formula>NOT(ISERROR(SEARCH(("stratified"),(V196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V264:V266 V269:V313">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:R1048576 M1:M1048576">
-    <cfRule type="containsText" dxfId="126" priority="64" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",M1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P62:R62 M62">
-    <cfRule type="containsText" dxfId="125" priority="61" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",M62)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" operator="equal">
-      <formula>"min"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="63" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",M62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:L1">
-    <cfRule type="containsText" dxfId="122" priority="39" operator="containsText" text="Note: these recommendations ">
-      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="40" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(K1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="41" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(K1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="42" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(K1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="43" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(K1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="44" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(K1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="45" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(K1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5 L90:L1048576 L1:L88 K1:K1048576">
-    <cfRule type="containsText" dxfId="115" priority="53" operator="containsText" text="sp_occ_restr">
-      <formula>NOT(ISERROR(SEARCH("sp_occ_restr",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H314:H317 E3:H313 E1:K2 O1:V313 I3:K317 L1:M317">
-    <cfRule type="containsText" dxfId="114" priority="79" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="80" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="81" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="82" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="83" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576 P299:R300 T90:U1048576 T1:U88 M1 M299:M300 O1:O1048576 L90:L1048576 L1:L88 K1:K1048576">
-    <cfRule type="containsText" dxfId="109" priority="38" operator="containsText" text="Note: these recommendations ">
-      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T288:U289 K288:L289">
-    <cfRule type="containsText" dxfId="108" priority="54" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(K288))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="55" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(K288))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="56" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(K288))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="57" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(K288))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="58" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(K288))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="59" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(K288))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O221:O222 AR1:AS49">
-    <cfRule type="containsText" dxfId="102" priority="66" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",O1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T89:U89">
-    <cfRule type="containsText" dxfId="101" priority="60" operator="containsText" text="Note: these recommendations ">
-      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",T89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V264:V266 V269:V313">
-    <cfRule type="cellIs" dxfId="100" priority="67" operator="equal">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="containsText" dxfId="99" priority="36" operator="containsText" text="Note: these recommendations ">
-      <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",V1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="37" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V196:V240 V267:V268">
-    <cfRule type="containsText" dxfId="97" priority="68" operator="containsText" text="stratified">
-      <formula>NOT(ISERROR(SEARCH(("stratified"),(V196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V266:V268 V27:V28 AT27:AT28 V32 AT32 V38 AT38 V41:V45 AT42:AT43 AU42:AU58 V47:V56 AT48 AT51 AR107:AS109 V109:V110 AR111:AS113 V112:V116 V120:V123 AR121:AS129 V125:V135 AR131:AS137 V137:V138 AR139:AS139 AR146:AS147 V152 AR152:AS155 V155:V156 AR190:AS190 AR194:AS195 AR202:AS203 AR206:AS206 AR208:AS209 AR211:AS211 AR213:AS213 AR215:AS215 AR218:AS219 AR221:AS222 V262 V282 AR285:AS285 V292 V296 V300:V303 V306 V309 V312">
-    <cfRule type="cellIs" dxfId="96" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y251">
-    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="sp_occ_restr">
+    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",Y251)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="51" operator="containsText" text="sp_occ_restr">
       <formula>NOT(ISERROR(SEARCH("sp_occ_restr",Y251)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="52" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",Y251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN299:AN313">
-    <cfRule type="duplicateValues" dxfId="93" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO301:AO309">
-    <cfRule type="duplicateValues" dxfId="92" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP299">
-    <cfRule type="duplicateValues" dxfId="91" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP300">
-    <cfRule type="duplicateValues" dxfId="90" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ310:AQ313">
-    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU90">
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU106:AU123">
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU125:AU158">
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F314:F317">
-    <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(F314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="22" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(F314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="23" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(F314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="24" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(F314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="25" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(F314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="26" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(F314))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G314:G317">
-    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(G314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(G314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(G314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="18" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(G314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="19" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(G314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(G314))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E314:E317">
-    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(E314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="10" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E314))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="14" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E314))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:XFD1 O1:Q1 A1:M1">
-    <cfRule type="duplicateValues" dxfId="66" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",L1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L7">
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",L5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="home range">
-      <formula>NOT(ISERROR(SEARCH("home range",M1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV7">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+  <conditionalFormatting sqref="AV2:AV313">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L227">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L227">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
-      <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
